--- a/deuChatbot/research_result/table_to_json(2500_400).xlsx
+++ b/deuChatbot/research_result/table_to_json(2500_400).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20785,6 +20785,6860 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1  
+   - 설명: 생성된 응답은 디자인조형학과의 실기시험에 대한 정보를 포함하고 있다고 명시된 원본 텍스트와 상반되는 내용을 담고 있습니다. 원본 텍스트에는 실기시험에 대한 구체적인 정보가 포함되어 있으나, 생성된 응답은 그러한 정보가 없다고 주장하고 있습니다.
+2. Consistency Score (1-5): 1  
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 디자인조형학과의 실기시험에 대한 상세한 정보를 제공하고 있지만, 생성된 응답은 이를 부정하고 있습니다.
+3. Relevance Score (1-5): 1  
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 디자인조형학과의 실기시험에 대한 정보를 제공하는 반면, 생성된 응답은 다른 학과의 정보가 포함되어 있다고 주장하고 있습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있으나, 원본 텍스트와의 불일치로 인해 전체적인 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1  
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1  
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1  
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0.6778023021447787</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 "디자인조형학과"와 관련된 실기시험 내용이 포함되어 있지 않습니다. 다른 학과들의 입학 전 실기 시험이나 서류 평가, 면접 등에 대한 정보만 포함되어 있습니다.
+더 자세한 정보를 얻으시려면 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 디자인조형학과의 입학 전 실기 시험 내용을 확인해 보세요. 해당 페이지에서 가장 정확하고 최신 정보를 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 주요 사실을 정확하게 반영하고 있습니다. 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보가 모두 포함되어 있으며, 내용이 일관되게 전달되고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 완전히 일치하며, 정보의 일관성이 유지되고 있습니다. 모든 세부사항이 원본과 동일하게 표현되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 실기종목과 준비물, 실기주제 등 핵심 정보를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다. 표현이 자연스럽고 이해하기 쉬운 방식으로 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 항목이 잘 연결되어 있습니다. 정보가 체계적으로 배열되어 있어 이해하기 쉽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보나 누락된 내용이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0.851393816273484</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목은 '기초디자인, 사고의 전환'입니다.
+- **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+- **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 '잠자리와 저울'과 같은 주제가 될 수 있습니다.
+- **화지크기**: 켄트지3절 크기가 사용됩니다.
+- **시간**: 5시간 동안 실기를 진행합니다.
+이 정보를 바탕으로 디자인조형학과의 실기 준비에 필요한 사항을 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 대회 목록과 관련된 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 대회 목록과 관련된 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 모든 중요한 포인트를 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0.889991138461129</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과에서 모집종목별로 인정하는 대회들은 다음과 같습니다.
+1. 배드민턴(남)의 경우, 다음의 대회들이 인정됩니다:
+   - 한국중·고연맹회장기전국학생선수권대회
+   - 대한배드민턴협회장기전국종별배드민턴선수권대회
+   - 전국학교대항배드민턴선수권대회
+   - 전국종별배드민턴선수권대회
+   - 전국연맹종별배드민턴선수권대회
+   - 전국체육대회
+   - 각종국제대회(주니어팀 소속으로 출전한 대회만 인정)
+   - 광역시·도 협회장기 종별대회
+2. 축구(남)의 경우, 다음의 대회들이 인정됩니다:
+   -춘계한국고등학교축구연맹전
+   -추계한국고등학교축구연맹전
+   -대한축구협회장배전국고등학교축구대회
+   -문화체육관광부장관기전국고등학교축구대회
+   -백운기전국고등학교축구대회
+   -전국고등축구리그(권역별고교축구리그)
+   -전국고등축구리그왕중왕전
+   -무학기전국고등학교축구대회
+   -청룡기전국고등학교축구대회
+   -백록기전국고등학교축구대회
+   -금강대기전국고등학교축구대회
+   -대통령금배전국고등학교축구대회
+   -금석배전국고등학생축구대회
+   -부산MBC전국고등학생축구대회
+   -K리그 U18 챔피언십
+   -K리그 U18 챔피언십왕중왕전
+위와 같은 대회들에서 입상한 경력이 있다면 해당 모집종목에 대한 학생의 실적을 인정받을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 주제B의 내용이 원본 텍스트와 다릅니다. 원본 텍스트의 주제B는 "악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음"인데, 생성된 응답에서는 "콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼"로 잘못 기재되어 있습니다. 이로 인해 사실성이 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 주제B의 내용이 다르기 때문에, 주제A와 주제B의 연결 주제를 추첨하는 방식에 대한 설명도 일관되지 않게 됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 기초디자인 실기시험에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 주제에 대한 설명이 있지만, 주제B의 내용이 잘못되어 전체적인 논리적 흐름이 약간 깨졌습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 주제B의 내용이 원본 텍스트와 다르기 때문에 정확성이 낮습니다. 주제A는 정확하지만, 주제B의 오류로 인해 전체적인 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 일부는 잘 수행했지만, 사실성과 일관성에서 큰 문제가 있어 전체적인 품질이 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 주제B의 오류로 인해 의미 전달이 완벽하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었으나, 주제B의 오류로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0.8953302710854121</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B를 각각 선정하여 연결된 주제를 작성해야 합니다. 예시로 주제들 중 일부는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+당일에는 이들 중에서 각 1개씩을 추첨하여 연결된 주제를 작성해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 나군 실기/실적 전형에서 출결 점수가 반영된다고 언급하고 있지만, 원문에서는 학생부 교과 전형에서는 출결 점수가 반영되지 않는다고 명확히 설명하고 있습니다. 따라서 사실관계가 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문은 출결 점수가 반영되지 않는다고 명시하고 있는데, 생성된 응답은 다른 전형에서 출결 점수가 반영된다고 하여 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 출결 점수에 대한 정보를 제공하지만, 원문에서 질문한 내용과는 관련이 적습니다. 원문은 특정 전형에 대한 질문이었으나, 생성된 응답은 다른 전형에 대한 정보를 포함하고 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 부족하여 논리적인 흐름이 다소 떨어집니다. 원문과의 연관성이 명확하지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상충되는 내용을 포함하고 있어 정확성이 낮습니다. 원문은 출결 점수가 반영되지 않는다고 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일치성이 부족하여 전반적인 품질이 낮습니다. 사실관계, 일관성, 관련성 모두에서 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 맥락이 다르기 때문에 의미적으로 완전히 적합하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원문과의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0.5622749921716047</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 나군 실기/실적(경기실적우수자전형)에서는 출결 상황이 반영됩니다. 결석일수에 따라 다음과 같이 반영점수가 결정됩니다:
+- 0~2일 결석일수: 120점
+- 3~6일 결석일수: 90점
+- 7~12일 결석일수: 60점
+- 13~20일 결석일수: 30점
+- 21일 이상 결석일수: 0점
+이 정보는 동의대학교 나군 실기/실적(경기실적우수자전형)에서 출결 점수가 어떻게 반영되는지에 대한 것입니다. 다른 전형에서는 출결 점수가 반영되지 않을 수 있으므로, 특정 전형의 경우 해당 내용을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 모집 인원과 전형에 대한 정보를 정확하게 반영하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 정보에 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 제시된 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽힙니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에 포함된 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉽습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0.8553840745537189</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>2024년 인문사회과학대학의 국어국문학과에서 가군 일반학생전형인 경우, 모집인원은 17명입니다.</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 인문사회과학대학 영어영문학과의 모집 인원에 대한 정확한 정보를 제공하지 않고 있으며, 잘못된 전형(나군)으로 언급하고 있습니다. 원본 텍스트에서 명시된 28명의 신입생 선발 정보가 누락되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 포함하고 있습니다. 원본 텍스트는 다군 전형에 대한 정보를 제공하는 반면, 생성된 응답은 나군 전형에 대한 내용을 다루고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주된 질문에 대한 직접적인 답변을 제공하지 않고 있습니다. 추가적인 정보는 제공되지만, 핵심 질문에 대한 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 부족하여 일관된 주제를 유지하지 못하고 있습니다. 원본 텍스트와의 연결이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 모집 인원에 대한 정확한 정보가 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 낮은 점수를 받고 있습니다. 전반적으로 원본 텍스트와의 관계가 매우 약합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 잘못된 전형에 대한 언급이 포함되어 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 이해할 수 있지만, 주제와 관련된 정보가 부족하여 혼란을 줄 수 있습니다. 원본 텍스트와의 연결이 약해 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0.5769762069276337</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학의 영어영문학과에서 나군 일반학생 전형으로 모집하는 인원은 제공된 정보로는 확인할 수 없습니다. 해당 학과와 관련된 정확한 모집인원이 포함되어 있지 않아서입니다. 
+다만, 나군 실기/실적(경기실적우수자전형) 모집단위 및 모집인원에서 경기지도학과의 경우 배드민턴(남) 3명, 축구(남) 4명을 모집하고 있습니다. 
+추가 정보를 얻으시려면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 나군 일반학생 전형의 모집 인원에 대한 정보를 제공하지 않고 있으며, "정원외 모집인원"이라는 잘못된 정보를 포함하고 있습니다. 이는 원본 텍스트의 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있어 일관성이 부족합니다. 원본 텍스트는 모집 인원에 대한 명확한 정보를 제공하고 있지만, 생성된 응답은 이를 부정하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 질문에 대한 직접적인 답변을 제공하지 않기 때문에 관련성이 떨어집니다. 원본 텍스트의 핵심 정보를 놓치고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 "정원외 모집인원"이라는 표현이 다소 혼란스러울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있으며, 여러 차원에서 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 비교적 이해하기 쉬운 문장 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.5775719121943961</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 의료보건생활대학 간호학과 나군 일반학생 전형의 정원외 모집인원에 대한 정보가 없습니다. 추가 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문하여 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 등급과 점수에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.9182430698702793</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+- 등급 1 : 139점
+- 등급 2 : 131점
+- 등급 3 : 123점
+- 등급 4 : 115점
+- 등급 5 : 107점
+- 등급 6 : 99점
+- 등급 7 : 91점
+- 등급 8 : 83점
+- 등급 9 : 75점
+이 점수들은 각 등급별로 수능 영어 시험에서 받은 점수를 나타냅니다.</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있다고 주장하고 있지만, 이는 원문에서 명확히 부정된 내용입니다. 원문에서는 예술고 학생이 지원할 수 없다고 명시하고 있으며, 생성된 응답은 이 사실을 완전히 왜곡하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있습니다. 원문에서 예술고 학생의 지원 불가능성을 명확히 언급했음에도 불구하고, 생성된 응답은 지원 가능성을 주장하고 있어 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성은 낮습니다. 원문에서의 핵심 내용은 예술고 학생의 지원 불가능성인데, 생성된 응답은 이를 무시하고 다른 조건을 제시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에는 부정적인 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계에서 비논리적인 주장을 하고 있어 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 반대되는 정보를 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받고 있습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 잘못된 정보를 바탕으로 하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.6966120452540161</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원하는 것은 가능하지만, 지원 자격에 대한 세부 조건을 확인해야 합니다. 주요 점은 다음과 같습니다:
+1. **학력**: 고등학교 졸업(예정)자 또는 검정고시 합격자여야 합니다.
+2. **재직 기간**: 2024년 3월 1일 기준으로 총 재직기간이 3년 이상이어야 합니다.
+또한, 지원 자격 증빙서류를 제출해야 하며, 이는 고교 학교생활기록부 또는 검정고시 성적증명서와 같은 서류가 포함될 것입니다. 
+따라서 예술고 학생이 나군 농어촌학생전형으로 지원하려면 위의 조건을 충족하고, 필요한 증빙서류를 제출해야 합니다. 자세한 내용은 동의대학교 입학처 웹사이트나 "https://ipsi. deu. ac. kr/main. do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록과 배점에 대한 정보를 정확하게 반영하고 있습니다. 그러나 "Z-런(여): 14.80~14.99"라는 추가 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주요 정보와 일치하지만, 추가된 "Z-런" 정보는 원본 텍스트와 일치하지 않으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 핵심 포인트를 직접적으로 언급하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 "Z-런" 정보가 포함되어 있어 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 대부분의 사실을 정확하게 반영하고 있지만, 원본 텍스트에 없는 정보를 포함하고 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있지만, 일관성과 정확성에서 약간의 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 맥락에 맞지 않아 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었으나, 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0.8812344235901426</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 218~221cm이며, 이 기록에 대한 배점은 275점입니다.
+이 정보는 다음과 같은 데이터에서 추출되었습니다:
+- 등급: 4
+- 제자리 멀리뛰기(여): 218~221cm
+- Z-런(여): 14.80~14.99
+- 배점: 275
+따라서, 레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록은 218~221cm이고, 이에 대한 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 출결 반영 비율에 대한 직접적인 정보를 제공하지 않고, 다른 정보를 찾으라는 내용으로 대체하고 있습니다. 이는 원본 텍스트의 핵심 사실을 누락하고 있어 사실성이 낮습니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 출결 반영 비율이 12%라고 명확히 언급하고 있지만, 생성된 응답은 이 정보를 제공하지 않고 다른 정보를 찾으라고 안내하고 있습니다.
+3. Relevance Score (1-5): 3  
+   - 설명: 생성된 응답은 출결 반영 비율에 대한 질문에 대한 답변으로는 적절하지 않지만, 관련된 다른 정보를 제공하려고 시도하고 있습니다. 그러나 핵심 질문에 대한 직접적인 답변이 부족하여 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트의 핵심 정보를 누락하여 전체적인 일관성이 떨어집니다. 정보의 흐름이 다소 불명확합니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 않고 있으며, 출결 반영 비율에 대한 구체적인 내용을 제공하지 않아 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성 모두 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 핵심 정보를 반영하지 않아 의미 전달이 부족합니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 핵심 정보가 누락되어 있어 질문에 대한 명확한 답변이 부족합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.5366277508275904</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 경기지도학과의 출결 상황에 대한 반영 방법은 확인되지 않았습니다. 다른 정보를 참고하거나, "기타사항 나군 실기/실적(경기실적우수자전형) 학생부 출결상황 반영방법" 섹션을 참조해 보시는 것이 좋겠습니다. 만약 해당 섹션에서도 찾지 못하시면, 공식 홈페이지인 "https://ipsi.deu.ac.kr/main.do"를 방문하여 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원과 학과 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 정보에 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 완벽하게 반영하고 있으며, 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0.9452858198564391</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 날짜와 내용을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보도 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 실기고사 일정에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 이해하기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0.4565637675900377</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 있습니다. 자세한 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후, 입학안내 홈페이지에서 확인할 수 있습니다.
+위 정보를 바탕으로 답변을 정리하면 다음과 같습니다:
+디자인조형학과의 실기고사는 2024년 1월 17일(수)에 진행되며, 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후, 입학안내 홈페이지에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 수능 최저 학력 기준이 없다는 원문 내용을 정확하게 반영하고 있습니다. 또한, 응용화학과의 명칭 변경에 대한 정보도 포함되어 있어 사실적으로 정확합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 수능 최저 기준이 없다는 점을 명확히 하고 있습니다. 문서 내의 다른 정보와도 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 질문한 수능 최저 기준에 대한 정보에 직접적으로 관련이 있으며, 추가적인 정보도 제공하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽힙니다. 문장 구조도 잘 구성되어 있어 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에서 제공된 정보와 일치하며, 사실적으로 정확합니다. 수능 최저 기준이 없다는 점을 명확히 하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문과의 의미적 일치가 뛰어나며, 문맥에 적합한 내용을 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0.4309557780710332</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 수능 최저기준에 대한 정보가 제공된 문서 내에서는 명시되어 있지 않습니다. 
+문서에서 응용화학과와 관련된 정보는 학과 분리 및 명칭 변경 부분에 언급되어 있습니다:
+- 2023년도: 응용화학과
+- 2024년도: 응용화학과로 명칭이 변경됨
+하지만 수능 최저기준은 언급되지 않았습니다. 
+따라서 정확한 수능 최저기준을 확인하려면 동의대학교 입학처 웹사이트나 공식 안내 자료를 참조하거나 직접 문의하는 것이 좋겠습니다.
+추가 정보를 원하시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 링크를 참고해주세요.</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 신설된 학과 목록에서 "심리학과", "스마트항만물류학과", "창업투자경영학과"를 언급하고 있지만, "창업투자경영학과"가 정원외로 모집된다는 정보는 원본 텍스트에 포함되어 있지 않습니다. 따라서 일부 사실이 누락되었거나 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, "창업투자경영학과"가 정원외로 모집된다는 주장은 원본 텍스트와 일치하지 않으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 신설된 학과에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 신설된 학과에 대한 정보를 명확하게 전달하고 있습니다. 그러나 "정원외"에 대한 언급이 원본과의 불일치를 초래하여 약간의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, "창업투자경영학과"의 모집 방식에 대한 정보가 원본 텍스트와 일치하지 않으므로 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있지만, 사실성과 일관성에서의 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 정보의 부정확성으로 인해 완전한 적합성은 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 정보의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.7146442144216315</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로는 "심리학과"와 "스마트항만물류학과", "창업투자경영학과"가 있습니다. 하지만 "창업투자경영학과"는 정원외로 모집되고 있습니다.
+따라서 2024학년도 동의대학교에서 신설된 학과 중 정원내로 모집되는 것은 "심리학과"와 "스마트항만물류학과"입니다.</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 전형요소 반영비율에 대한 명확한 정보를 제공하지 않고 있으며, 사실과 반대되는 내용을 포함하고 있습니다. 원본 텍스트에서 명시된 서류 70%, 면접 30%라는 정보가 누락되었습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본에서는 전형요소 반영비율이 명확히 제시되었으나, 생성된 응답은 이를 부정하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 질문에 대한 직접적인 답변을 제공하지 않으며, 관련성이 낮습니다. 원본의 핵심 정보가 누락되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되었으나, 내용의 부정확성으로 인해 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있으나, 원본 텍스트와의 불일치로 인해 논리적인 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 중요한 정보를 누락하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 문장은 이해할 수 있으나, 내용의 부정확성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.6347343109252086</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)에 대한 특정한 전형요소 반영비율이 명시되어 있지 않습니다. 더 자세한 내용을 확인하시려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문하여 공식 정보를 확인해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 학과에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 의료·보건·생활대학, 공과대학, ICT융합공과대학에서 가산점을 적용한다고 명시되어 있지만, 생성된 응답에서는 레저스포츠학과와 태권도학과를 언급하고 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 학과를 언급하고 있어 일관성이 없습니다. 원본 텍스트의 정보와 생성된 응답의 정보가 상충합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 수능 가산점에 대한 질문에 답하고 있지만, 제공된 정보가 원본 텍스트와 관련이 없고 잘못된 정보를 포함하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로는 일관성을 가지고 있지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 적절하지 않으며, 원본 텍스트의 맥락과 일치하지 않습니다. 잘못된 정보가 포함되어 있어 의미 전달이 부정확합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.6992472631581479</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서 수능 가산점을 적용하는 학과는 레저스포츠학과, 태권도학과, 그리고 일부 나군(일반학생전형) 학과입니다.
+- **레저스포츠학과, 태권도학과**: 수학(미적분 또는 기하) 응시자의 경우 수학 표준점수 x 0.1 가산점을 적용합니다.
+- **나군(일반학생전형)**: 일부 모집단위에서는 수학(미적분 또는 기하) 응시자의 경우 수학 표준점수 x 0.1 가산점을 적용합니다.
+따라서, 동의대학교에서 수능 가산점을 적용하는 학과는 위와 같습니다.</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 성적을 100% 반영한다고 명시된 원문과는 다르게 구체적인 반영 방법을 제시하고 있습니다. 원문에서는 성적 반영 방법에 대한 구체적인 내용이 없으며, '38페이지 Ⅴ. 수능성적 반영방법'을 참조하라고 언급하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문에서는 성적 반영 방법에 대한 구체적인 설명이 없고, 단순히 100% 반영한다고만 언급하고 있습니다. 생성된 응답은 구체적인 점수 반영 방법을 나열하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 언급된 수능 성적 반영에 대한 질문에 관련된 내용을 다루고 있습니다. 그러나 원문에서 요구하는 구체적인 방법에 대한 언급이 없기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 점수 반영 방법을 나열하고 있지만, 원문과의 연결이 부족하여 일관된 흐름이 떨어집니다. 원문에서 제시한 정보와의 연관성이 약합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 다르게 구체적인 점수 반영 방법을 제시하고 있어 정확성이 떨어집니다. 원문에서는 성적 반영 방법에 대한 구체적인 내용이 없기 때문에 잘못된 정보로 간주됩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았기 때문에 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문의 맥락을 완전히 반영하지 못하고 있습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조로 되어 있지만, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.7145564072236131</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군(일반학생전형)에서는 수능 성적을 다음과 같이 반영합니다.
+1. **국어 표준점수** + 
+2. **수학 표준점수** +
+3. **영어 등급점수** +
+4. **탐구 표준점수** +
+5. **가산점(수학(미적분 또는 기하) 응시자는 수학 표준점수 x 0.1)**
+이 방법으로 학생들의 수능 성적을 종합적으로 평가합니다.</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사 날짜에 대한 정확한 정보를 제공하고 있으며, 태권도학과의 실기고사 날짜라는 추가 정보도 포함되어 있습니다. 그러나 태권도학과에 대한 언급이 원본 텍스트에 포함되어 있지 않으므로, 이 부분은 다소 불확실합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일치하는 부분이 있지만, 태권도학과에 대한 언급은 원본 텍스트에 없는 정보로, 일관성이 떨어집니다. 추가 정보는 유용하지만, 원본 텍스트와의 일관성 측면에서 약간의 모순이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용인 실기고사 날짜에 직접적으로 관련된 정보를 제공합니다. 추가 정보도 실기고사와 관련이 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 실기고사 날짜와 추가 정보를 자연스럽게 연결하고 있습니다. 그러나 태권도학과에 대한 언급이 원본 텍스트와의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 실기고사 날짜에 대한 정보는 정확하지만, 태권도학과에 대한 언급은 원본 텍스트에 포함되어 있지 않으므로 정확성에서 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이며, 사실성, 관련성, 유창성, 일관성 등에서 좋은 점수를 받았습니다. 그러나 태권도학과에 대한 언급으로 인해 약간의 일관성 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 태권도학과에 대한 언급이 다소 부적절할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 그러나 태권도학과에 대한 언급이 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.7968814887780333</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 2024년 1월 16일(화)에 있습니다. 이날은 태권도학과의 실기고사 날짜입니다.
+추가 정보로, 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후에 입학안내 홈페이지에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서 제외된 모집단위에 대한 정보를 잘못 전달하고 있습니다. 원문에서는 한의예과, 디자인조형학과, 체육학과, 경기지도학과가 제외된다고 명시되어 있지만, 생성된 응답은 특정 모집단위가 제외되지 않았다고 주장하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문에서 제외된 모집단위가 명확히 언급되었음에도 불구하고, 생성된 응답은 그와 반대되는 주장을 하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 요구하는 정보와 관련이 있지만, 주된 질문에 대한 답변이 아닌 새로운 정보를 제공하고 있습니다. 원문에서 제외된 모집단위에 대한 질문에 대해 신설된 학부에 대한 정보는 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 흐름이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 문장 구조는 일관되지만, 원문과의 관계가 명확하지 않아 논리적인 흐름이 부족합니다. 원문에서 요구하는 정보와 생성된 응답의 내용이 서로 연결되지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 다릅니다. 원문에서 명시된 제외된 학과에 대한 정보가 잘못 해석되어 있으며, 이는 정확성 점수에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 관계가 부정확하고 일관성이 없으며, 관련성이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 의미적으로 적절하지 않습니다. 원문에서 요구하는 정보와는 다른 방향으로 나아가고 있어 의미의 일관성이 부족합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원문과의 관계가 불명확하여 전체적인 이해가 어려울 수 있습니다. 정보의 명확성이 부족하여 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.4918886443545056</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서는 "라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)"가 신설되었으나, 아직 모집 중인 단위는 없습니다. 즉, 특정 모집단위가 제외된 것은 아닌 것으로 보입니다.
+만약 다른 정보가 필요하시거나 확인하실 부분이 있다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저기준이 적용되지 않는다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 최저기준이 적용되지 않는다는 정보가 일관되게 유지되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 핵심 주제를 직접적으로 다루고 있으며, 관련된 추가 정보를 제공하여 주제와의 관련성을 높이고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽고 이해하기 쉬운 문장 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 연결되어 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보나 누락된 내용이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 직관적이며, 이해하기 쉬운 방식으로 정보를 전달하고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0.8270066260561225</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 
+참조된 정보:
+```json
+{
+    "전형 유형": "수능 위주",
+    "전형명": "다군 수능(일반학생전형) 전 모집단위",
+    "모집 인원": 180,
+    "사정 단계": "일괄 합산",
+    "전형요소 반영비율(%)": {
+        "학생부 교과": 0,
+        "출결": 0,
+        "서류": 0,
+        "면접": 0,
+        "실기": 0,
+        "수능": 100
+    },
+    "수능최저기준": "수능최저기준 없음"
+}
+```
+위 정보에서 확인할 수 있듯이, 다군 전형의 경우 수능 최저기준이 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교에서 학부에서 학과로 분리된 학과들에 대한 정보를 제공하고 있으며, 주요 변경 사항을 잘 요약하고 있습니다. 그러나 모든 학과의 변경 사항을 포함하지 않아 일부 세부사항이 누락되었습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있으며, 주요 학과의 변경 사항을 정확히 반영하고 있습니다. 다만, 모든 학과의 변경 사항을 언급하지 않아 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 학부에서 학과로의 분리와 관련된 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 모든 학과의 변경 사항을 포함하지 않아 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 모든 세부사항을 포함하지 않아 정확성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 전반적으로 높은 품질을 유지하고 있습니다. 그러나 일부 세부사항의 누락으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 다만, 모든 학과의 변경 사항을 포함하지 않아 약간의 의미적 부족함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0.6686084081287772</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 "아동학과"와 "금융경영학과", 그리고 "경영정보학과, e비즈니스학과" 등이 학부에서 학과로 분리되었습니다.
+특히 주요 변경 사항으로는:
+1. 보육·가정상담학과가 아동학과로 명칭 변경됨.
+2. 경제금융보험학과가 금융경영학과로 명칭 변경됨.
+3. 정보경영학부(경영정보학, e비즈니스학)가 경영정보학과와 e비즈니스학과로 분리됨.
+이러한 학과 분리는 2024학년도부터 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원서접수 마감일에 대한 정확한 정보를 제공하고 있으며, 원서접수 기간에 대한 추가 정보도 포함되어 있습니다. 모든 사실이 정확하게 반영되었습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 마감일과 관련된 정보가 서로 충돌하지 않습니다. 모든 정보가 일관되게 제시되었습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 원서접수 마감일과 관련된 추가 정보를 제공하여 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러우며, 읽기 쉽습니다. 전반적으로 유창하게 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0.7279322482245933</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 원서접수 마감일은 2024년 1월 6일(토) 18시까지입니다. 자세한 일정은 다음과 같습니다:
+- 원서접수(인터넷): 2024. 01. 03.(수)～2024. 01. 06.(토) 마감일 18시까지
+원서접수는 이 기간 내에 완료해야 하며, 마감일은 2024년 1월 6일(토) 18시까지입니다.
+자세한 내용은 입학안내 홈페이지에서 확인하실 수 있습니다. [입학안내 홈페이지](http://ipsi. deu. ac. kr) 또는 [온라인 지원 사이트](http://www. uwayapply. com)를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교 2024학년도 전형 요소 변화에 대한 정보가 아닌, 다른 학과의 명칭 변경 및 신설에 대한 내용을 포함하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 이로 인해 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 동의대학교의 전형 요소 변화에 대한 질문에 대한 답변이 아닙니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 부적절하여 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 이해하기 쉬운 문장으로 구성되어 있지만, 내용이 부적절하여 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0.6567264638071673</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>2024학년도에 전형 요소 변화가 있는 전형들은 다음과 같습니다:
+1. **아동학과** - 보육·가정상담학과에서 분리되었습니다.
+2. **금융경영학과** - 경제금융보험학과에서 명칭이 변경되었습니다.
+3. **경영정보학과, e비즈니스학과** - 정보경영학부에서 분리되었습니다.
+4. **부동산자산경영학부(부동산투자학, 부동산개발경영학)** - 부동산금융·자산경영학과에서 명칭이 변경되었습니다.
+5. **기계공학과, 로봇자동화공학과, 자동차공학과** - 기계자동차로봇부품공학부에서 분리되었습니다.
+6. **신소재공학과, 고분자나노공학과** - 신소재공학부에서 분리되었습니다.
+7. **건축학과(5년제), 건축공학과, 토목공학과, 도시공학과** - 건설공학부에서 분리되었습니다.
+8. **화학공학과, 환경공학과, 응용화학과** - 화학환경공학부에서 분리되었습니다.
+9. **의생명공학과, 바이오의약공학과, 식품공학과** - 바이오응용공학부에서 분리되었습니다.
+10. **인간공학과, 제품디자인공학과** - 디자인공학부에서 분리되었습니다.
+11. **산업경영빅데이터공학과** - 산업융합시스템공학부에서 분리되었습니다.
+12. **소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)** - 창의소프트웨어공학부에서 분리되었습니다.
+13. **음악학과(클래식, 실용음악, 뉴미디어작곡)** - 음악학과 명칭이 변경되었습니다.
+또한 2024년도에는 심리학과와 스마트항만물류학과가 신설되었으며, 창업투자경영학과는 전공 모집을 중지하였습니다. 이 정보를 바탕으로 동의대학교 2024학년도에 변화된 전형 요소들을 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중이 70%라는 사실을 왜곡하고 있습니다. 응답에서는 레저스포츠학과와 태권도학과를 제외한 모든 모집단위에서 실기 비중이 100%라고 주장하고 있지만, 이는 사실과 다릅니다. 따라서, 사실성 점수는 1입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본 텍스트는 실기 비중이 70%라고 명시하고 있지만, 생성된 응답은 이를 부정하고 100%라고 주장합니다. 이로 인해 일관성 점수는 1입니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 관련성이 떨어집니다. 원본 텍스트의 핵심 정보인 실기 비중에 대한 정확한 설명이 부족합니다. 따라서 관련성 점수는 3입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성이 떨어지기 때문에 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 따라서 일관성 점수는 3입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 1입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 따라서 다차원 품질 점수는 1입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 전달하고 있습니다. 원본 텍스트의 의미와 다르게 해석되므로 점수를 2로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있어 이해하기 어렵지 않지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 4입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0.7132038212840001</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 레저스포츠학과와 태권도학과를 제외한 모든 모집단위에서 100%입니다. 반면에 레저스포츠학과와 태권도학과에서는 수능이 30%, 실기가 70%의 비중을 차지합니다.
+따라서, 일반적으로는 실기 비중이 100%이며, 특별한 경우가 있을 때만 실기가 70%로 비중이 높아집니다.</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 세부 전공 목록도 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가적인 정보가 포함되어 있지만 원본의 사실과 모순되지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0.8031975423930962</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로는 '라이프융합학부'가 있습니다. 이 학부에는 세 가지 세부 전공이 포함되어 있습니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+따라서, 2024년 동의대학교에서 신설된 '라이프융합학부'는 위 세 가지 전공을 통해 학생들에게 다양한 분야에 대한 교육을 제공할 계획입니다.</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 '태권도학과'를 포함하고 있지만, 원본 텍스트에는 '체육학과'와 '레저스포츠학과'만 언급되어 있습니다. 따라서 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. '태권도학과'는 원본에 없으며, 이로 인해 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사에 참여해야 하는 학과에 대한 정보를 제공하고 있으나, 잘못된 학과가 포함되어 있어 완전한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있는 구조를 가지고 있지만, 잘못된 정보로 인해 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 포함하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0.7654723492285195</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사에 참여해야 하는 학과들은 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+이 두 학과는 가군 수능(일반학생전형) 및 실기/실적(일반학생전형)에서 실기고사를 실시합니다.</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 "가군"에서 레저스포츠학과와 태권도학과를 제외한 모든 모집단위에서 지원이 가능하다고 언급하고 있지만, 원본 텍스트에서는 실기/실적 위주 전형 지원 가능한 학과 목록이 명확히 제시되어 있습니다. 따라서, 이 정보는 부정확합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, "가군"과 "나군"에 대한 정보가 추가되었지만, 원본 텍스트의 학과 목록과는 상충하는 부분이 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보가 포함되어 있어 전체적으로는 관련성이 떨어집니다. 그러나 주제에 대한 언급은 여전히 유효합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 표현이 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 따라서, 응답의 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있어 정확성이 낮습니다. 특히, 지원 가능한 학과에 대한 정보가 잘못 전달되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않은 부분이 있습니다. 그러나 전반적으로 주제와 관련된 내용이 포함되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 표현이 사용되었습니다. 그러나 일부 정보의 부정확성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0.7118353811773017</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 "가군"은 레저스포츠학과와 태권도학과를 제외한 모든 모집단위에서 지원이 가능합니다. 또한, "나군"에서는 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과가 해당됩니다.
+따라서, 2024학년도 동의대학교 실기/실적 위주 전형을 지원하려면 다음과 같은 학과에서 지원이 가능합니다:
+- 가군: 모든 모집단위 (레저스포츠학과와 태권도학과 제외)
+- 나군: 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과
+이 정보를 바탕으로 지원할 학과를 선택하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 전공 목록을 정확하게 반영하고 있으며, 추가적인 정보도 제공하고 있습니다. 모든 사실이 정확하게 전달되었습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 전공 목록과 관련된 정보가 일치합니다. 모순되는 내용이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제인 전공 제공에 직접적으로 관련되어 있으며, 추가적인 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다. 표현이 자연스럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 흐릅니다. 각 전공이 명확하게 나열되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.8738025378509774</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부에서는 다음과 같은 전공을 제공하고 있습니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+이 정보는 "나군 학생부교과(농어촌학생전형)  - 정원외 최종등록자 추가 제출서류" 섹션에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 정확하게 반영하고 있습니다. 그러나 "마이스터고"에 대한 언급이 없고, 농어촌학생전형에 대한 정보가 누락되어 있어 완전한 정확성은 다소 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 일반학생전형에 대한 정보는 일관되지만, 농어촌학생전형에 대한 언급이 없어서 원본 텍스트와의 일관성이 떨어집니다. 특히 마이스터고에 대한 정보가 누락되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 관련된 정보를 잘 포함하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 마이스터고에 대한 언급이 없어서 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 대부분의 사실을 정확하게 반영하고 있지만, 농어촌학생전형에 대한 정보가 누락되어 있어 완전한 정확성은 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 전반적으로 높은 품질을 가지고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 정보의 누락으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지지만, 일부 정보의 누락으로 인해 완전한 적절성은 다소 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있을 수 있어 완전한 이해 가능성은 다소 떨어질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.7711814572518438</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생이더라도 동의대학교 일반학생전형에서는 지원 가능합니다. 
+특수목적고등학교에 속하는 과학고, 국제고, 외국어고, 예술고, 체육고, 마이스터고 등은 모두 동의대학교 일반학생전형에서 지원이 가능합니다.
+만약 더 자세한 정보가 필요하시다면, 해당 대학의 공식 웹사이트를 방문하여 최신 정보를 확인해보시는 것이 좋습니다. [https://ipsi. deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과가 가장 많이 모집하는 학과라는 사실을 잘못 전달하고 있습니다. 대신 국어국문학과가 9명을 모집한다고 언급하고 있으며, 이는 원본 텍스트와 상충합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본에서는 중어중국학과와 신소재공학과가 가장 많이 모집하는 학과라고 명시되어 있지만, 생성된 응답은 다른 학과를 언급하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 제공하고 있어 주제에 대한 적절한 답변이 아닙니다. 원본의 핵심 정보를 무시하고 다른 내용을 언급하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보의 흐름은 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 잘못된 학과와 모집 인원을 언급하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 불일치가 두드러집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 제공하고 있습니다. 원본의 핵심 내용을 무시하고 다른 내용을 언급하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 보통 수준입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.6718142732505958</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많은 인원을 모집하는 학과를 확인해보겠습니다.
+현재 제공된 정보에서는 인문사회과학대학의 국어국문학과가 9명을 모집하고 있습니다. 그러나 전체 모집단위와 지원인원, 경쟁률 등을 고려할 때, 가장 많이 모집하는 학과는 아직 명확히 파악되지 않았습니다.
+더 많은 정보를 제공받아 분석해야 할 것 같습니다. 만약 더 자세한 정보가 필요하다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 특수목적고등학교 출신자가 동의대 학생부교과 농어촌학생전형으로 지원할 수 없다는 사실을 완전히 무시하고 있습니다. 이는 명백한 사실의 왜곡입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 특수목적고등학교 출신자가 지원할 수 없다고 명시하고 있지만, 생성된 응답은 지원 가능하다고 주장합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 제공하여 주제에 대한 신뢰성을 떨어뜨립니다. 따라서 관련성은 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 잘못된 정보로 인해 논리적 흐름이 약해집니다. 원본 텍스트와의 불일치로 인해 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 완전히 왜곡하고 있습니다. 따라서 정확성 점수는 최저입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적 적절성 점수는 최저입니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성 점수는 중간입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.6513136545109776</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>당신이 특수목적고등학교 학생이라면, 동의대학교에서 제공하는 '학생부교과 농어촌학생전형'으로 지원 가능합니다. 
+특수목적고등학교를 포함한 모든 고등학교 유형(일반고, 자율고, 예술고, 체육고, 마이스터고, 특성화고, 영재학교, 학력인정고, 방송통신고, 각종학교, 검정고시, 외국고)의 학생들이 이 전형을 통해 지원할 수 있습니다.
+만약 자세한 지원 요건이나 추가 정보가 필요하다면, 동의대학교의 입학처 웹사이트(https://ipsi. deu.ac.kr/main.do)를 참조하시거나 직접 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 대체로 정확하게 반영하고 있으며, 합격자 평균 성적에 대한 정보가 없다는 점을 잘 전달하고 있습니다. 그러나 "특정 합격자들의 평균 성적 데이터가 없습니다"라는 표현은 원본의 내용을 약간 변형한 것으로, 원본의 직접적인 언급이 아닌 추가적인 설명이 포함되어 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 다만, "해당 부서의 모집단위와 전형명을 확인한 후"라는 부분은 원본 텍스트에 명시되어 있지 않은 내용으로, 약간의 불일치가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 합격자 평균 성적에 대한 정보를 찾는 방법을 제시하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 "제공된 정보로는"이라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 연결이 약간 느슨하게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 원본의 직접적인 내용을 약간 변형하여 표현하고 있어 완전한 정확성에는 다소 미치지 못합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 세부 사항에서 약간의 불일치가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 표현이 원본의 의미를 약간 변형하고 있어 완전한 적합성에는 미치지 못합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문구가 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.7251784214172482</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 2024학년도 소프트웨어공학부에 대한 특정 합격자들의 평균 성적 데이터가 없습니다. 소프트웨어공학부와 관련된 합격자들의 평균 성적을 알고 싶다면, 해당 부서의 모집단위와 전형명을 확인한 후, 제공된 정보에서 해당 부분을 찾아보시거나, 필요하다면 공식 웹사이트를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 내용을 잘 반영하고 있으며, 2024학년도 소프트웨어공학부에 대한 정보가 없다는 점을 정확히 전달하고 있습니다. 그러나 "데이터가 없습니다"라는 표현은 원본의 "정보가 포함되어 있지 않습니다"와 약간의 의미 차이가 있어 완전한 일치를 보이지는 않습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 전달하고 있습니다. 다만, "다른 관련 정보를 찾기 위해"라는 추가적인 문구가 원본 텍스트에는 없기 때문에 약간의 일관성 저하가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 질문에 대한 적절한 답변을 제공합니다. 따라서 매우 높은 관련성을 보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 "제공된 정보에는"이라는 문구가 약간 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트의 흐름을 잘 따릅니다. 그러나 약간의 추가 정보가 포함되어 있어 완전한 일관성은 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 정보의 정확성은 높습니다. 그러나 "데이터"라는 표현이 원본의 "정보"와는 다소 차이가 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 약간의 일관성 및 정확성 저하로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합합니다. 그러나 "데이터"라는 표현이 원본의 의미와 완전히 일치하지 않기 때문에 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉽습니다. 그러나 약간의 어색한 표현이 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.7155799973546764</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 2024학년도 소프트웨어공학부에 대한 데이터가 없습니다. 다른 관련 정보를 찾기 위해 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문해보세요.</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 주요 정보를 포함하고 있으며, 대부분의 세부 사항이 정확합니다. 그러나 최초 합격자 등록 일정이 추가되어 있어 원본 텍스트와 약간의 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 추가된 내용(최초 합격자 등록 일정)으로 인해 일관성이 떨어집니다. 원본 텍스트와의 일관성이 완벽하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 합격자 발표 일정에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 대부분 포함하고 있지만, 추가된 내용으로 인해 정확성이 약간 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되었지만, 일관성과 정확성에서 약간의 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보로 인해 약간의 의미 변동이 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.7789187608845834</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>2024학년도 합격자 발표 일정은 다음과 같습니다.
+1. 최초 합격자 발표 및 등록금 납부 (가군, 나군, 다군)
+   - 일정: 2024. 02. 02.(금) 14:00
+   - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소 학교 지정은행
+2. 최초 합격자 등록 (가군, 나군, 다군)
+   - 일정: 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+3. 충원 합격자 발표 및 등록 (가군, 나군, 다군)
+   - 1차: 2024. 02. 14.(수) 09:00
+     - 일정: 홈페이지에서 개별 조회, 고지서 교부, 등록장소 학교 지정은행
+   - 2차: 2024. 02. 15.(목) 09:00
+     - 일정: 홈페이지에서 개별 조회, 고지서 교부, 등록장소 학교 지정은행
+4. 충원 합격자 3차 이후 발표 및 등록 (가군, 나군, 다군)
+   - 일정: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소 학교 지정은행
+이 일정에 따라 합격자 발표 및 등록금 납부가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 면접고사 일정에 대한 구체적인 정보를 제공하지 않고, 일반적인 면접 절차에 대한 설명으로 대체하고 있습니다. 원본 텍스트에서 명시된 날짜(2024. 01. 20.)가 누락되어 있어 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 정보인 면접고사 일정과 관련된 내용을 포함하지 않으며, 일반적인 면접 절차에 대한 설명으로 일관성이 떨어집니다. 원본 텍스트와의 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 면접고사에 대한 일반적인 정보는 제공하지만, 원본 텍스트의 주요 내용인 면접 일정에 대한 직접적인 언급이 없기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 불필요하게 복잡할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트의 핵심 내용과 연결되지 않아 논리적인 흐름이 약간 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 않으며, 면접 일정에 대한 구체적인 사실이 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 낮은 점수를 받았습니다. 전반적으로 원본 텍스트와의 연관성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 면접에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나 있습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0.4390331839503053</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접고사의 일정은 일반적으로 입학사정관이 평가를 진행하며, 각 모집단위별로 개별면접을 실시합니다. 개별면접은 지원자 1명당 약 10분 이내에 이루어지며, 입학사정관 2인이 평가위원으로 참여하여 정성적이고 종합적인 평가를 진행합니다.
+具体的来说，面试通常由入学事务官进行评估，并且每个招生单位会安排单独的面试。每位申请者大约需要10分钟的时间来完成面试，两位入学事务官作为评委将对申请者的回答内容进行定性和综合性的评价。
+면접 일정은 일반적으로 다음과 같습니다:
+- 개별면접: 지원자 1명당 약 10분 이내
+- 평가위원: 입학사정관 2인
+具体的面试时间安排如下：
+- 单独面试：每位申请者大约需要10分钟的时间
+- 评委：两位入学事务官
+이 정보를 바탕으로, 정확한 일정은 해당 대학의 공지사항이나 입학처 웹사이트에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 한의예과의 최저학력 기준이 없다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가적인 정보도 원본의 내용을 보완하는 방식으로 제공되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 한의예과의 최저학력 기준에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 약간의 어색한 표현이 있을 수 있습니다. 예를 들어, "제공된 정보에서"라는 표현이 조금 더 자연스럽게 바뀔 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0.5807306077002702</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 한의예과의 최저학력 기준에 대한 내용은 없습니다. "수능최저기준" 항목에서는 "수능최저기준 없음"이라고 표시되어 있습니다.
+만약 더 자세한 정보를 원하시면, 주신 링크를 통해 확인해 보실 수 있습니다: https://ipsi. deu. ac. kr/main. do</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실과 상충하는 내용을 포함하고 있습니다. 응답에서는 수능 최저학력 기준이 다르게 적용된다고 언급하고 있어, 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 모순되는 정보를 제공하고 있습니다. 원본 텍스트는 수능 최저학력 기준이 없다고 명시하고 있지만, 생성된 응답은 기준이 다르게 적용된다고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준에 대한 질문에 대한 답변으로 관련성이 있지만, 잘못된 정보를 제공하고 있어 완전한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 상반되는 정보를 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받으며, 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 부적절한 정보를 포함하고 있어 원본 텍스트의 맥락과 일치하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 쉬운 편이지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0.4603658892552487</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>정시 전형으로 지원할 때 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 정시모집군 변경에 따른 전형별로 수능 최저학력 기준이 다르게 적용됩니다. 각 전형별로 지원 가능한 고교유형과 함께 수능 최저학력기준을 확인하시면 좋습니다. 예를 들어, 인문사회과학대학의 인간공학과와 제품디자인공학과는 2024년도에 정시모집군이 변경되므로 새로운 수능최저학력기준이 적용될 것입니다.
+더 자세한 정보를 얻으려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문하여 최신의 정시모집 전형별 수능최저학력기준을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 2차 충원합격자 발표일인 2024년 2월 15일(목) 09:00을 언급하고 있지만, 1차 발표일인 2024년 2월 14일(수) 09:00과 3차 이후 발표 일정에 대한 정보는 누락되어 있습니다. 따라서 일부 사실이 누락되어 있어 점수를 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 2차 충원합격자 발표일을 언급하고 있지만, 1차 발표일과 3차 이후 발표 일정에 대한 정보가 없으므로 일관성이 떨어집니다. 전체적인 발표 일정과의 일관성을 고려할 때 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 질문에 직접적으로 관련된 내용을 포함하고 있어 매우 관련성이 높습니다. 따라서 점수를 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색함이 느껴질 수 있어 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 연결되어 있으며, 발표 일정에 대한 정보를 명확하게 전달하고 있습니다. 그러나 전체 일정에 대한 정보가 부족하여 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 2차 발표일에 대한 정확한 정보를 제공하지만, 1차 발표일과 3차 이후 발표 일정에 대한 정보가 누락되어 있어 정확성에서 점수를 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 관련성, 유창성, 일관성에서 좋은 점수를 받았지만, 사실성과 정확성에서 일부 정보가 누락되어 있어 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 전체 발표 일정에 대한 정보가 부족하여 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 일부 정보가 누락되어 있어 완전한 이해를 방해할 수 있습니다. 따라서 점수를 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.7801118354481833</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목) 09:00부터 충원합격자 발표가 이루어집니다. 이와 함께 2차 충원 합격자 등록도 진행됩니다. 자세한 일정은 입학 안내 홈페이지에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 명확한 정보를 제공하지 않고 있으며, 원본 텍스트에 명시된 구체적인 날짜와 시간을 무시하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 상충합니다. 원본 텍스트는 구체적인 발표 일정을 제공하고 있지만, 생성된 응답은 그러한 정보를 부정하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주된 질문에 대한 직접적인 답변을 제공하지 않기 때문에 관련성이 낮습니다. 원본 텍스트의 구체적인 일정에 대한 언급이 없기 때문에 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 관련성이 떨어지기 때문에 점수가 다소 낮습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트와의 관계가 명확하지 않아 일관된 흐름이 부족합니다. 따라서 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트의 구체적인 날짜와 시간을 무시하고 있기 때문에 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받았습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 적절하지 않으며, 원본 텍스트의 맥락과 일치하지 않습니다. 원본 텍스트의 정보가 무시되었기 때문에 점수가 낮습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉽지만, 원본 텍스트와의 관련성이 부족하여 이해하는 데 혼란을 줄 수 있습니다. 따라서 점수는 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.4942637091281275</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 추가합격자(충원 합격)의 발표 시기에 대한 명확한 정보가 없습니다. 추가합격자 발표와 관련된 자세한 일정은 동의대학교에서 공식적으로 발표하는 입학사정관이나 홈페이지를 통해 확인해야 합니다. 
+추가로, 일반적으로 수시모집의 경우 각 대학이 자체적인 일정을 가지고 있으므로, 정확한 날짜는 해당 대학의 공지사항을 참고하시기 바랍니다.
+더 궁금하신 점이 있다면, https://ipsi.deo.ac.kr/main.do 를 방문하여 자세한 정보를 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 추가 모집에 대한 명확한 정보를 제공하지 않으며, 원본 텍스트에서 언급된 내용과 상충하는 부분이 있습니다. 원본 텍스트는 추가 모집이 이루어진다고 명시하고 있지만, 생성된 응답은 그에 대한 부정적인 해석을 하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 추가 모집이 없다고 주장하고 있습니다. 이는 원본 텍스트의 정보와 모순됩니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 정보의 정확성이 떨어져서 관련성이 낮아 보입니다. 원본 텍스트의 핵심 내용을 제대로 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 약해 전체적인 논리적 흐름이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트는 추가 모집이 이루어진다고 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 정보의 정확성이 떨어져 의미 전달이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.4861954448517727</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 추가 모집에 대한 명확한 내용이 없습니다. 특정 학교나 대학의 추가 모집 여부는 일반적으로 해당 기관의 공식 웹사이트를 통해 확인해야 합니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 링크를 참조해 주시거나, 관련된 학교나 대학의 공식 웹사이트를 방문하여 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 평생학습자전형에 대한 정보에서 모집단위 및 모집인원, 지원자격, 제출서류 등의 세부사항이 잘못 기재되어 있습니다. 예를 들어, '미래융합대학 인문사회 계열 부동산자산경영학부'와 같은 정보는 원본 텍스트에 포함되어 있지 않으며, 모집인원도 다르게 기재되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 여러 부분에서 일치하지 않으며, 특히 모집단위와 지원자격에 대한 정보가 상이합니다. 이러한 불일치는 응답의 일관성을 저해합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 평생학습자전형에 대한 정보를 제공하고 있으나, 원본 텍스트의 특정 세부사항과는 다르게 설명하고 있습니다. 그러나 전반적으로 주제와 관련된 내용을 다루고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 전반적으로 구조가 잘 잡혀 있으나, 원본 텍스트와의 불일치로 인해 논리적인 흐름이 약간 깨질 수 있습니다. 정보의 일관성이 부족하여 완전한 일관성을 보장하지는 않습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 여러 부분에서 다르게 기재되어 있어 정확성이 낮습니다. 특히 모집단위와 지원자격에 대한 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 낮은 점수를 받습니다. 사실성, 일관성, 정확성에서 문제가 있어 전체적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있으나, 세부사항에서의 불일치로 인해 의미 전달이 완벽하지 않습니다. 그러나 전반적인 주제는 적절하게 다루고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조로 작성되어 있으며, 명확한 언어로 표현되어 있습니다. 다만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있는 부분이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.7130819159633954</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 성인 학습자를 대상으로 한 입학 전형입니다. 주요 내용을 요약하면 다음과 같습니다:
+1. **모집단위 및 모집인원**:
+   - 미래융합대학 인문사회 계열 라이프융합학부: 11명
+   - 미래융합대학 인문사회 계열 라이프융합학부 (정원외): 23명
+   - 미래융합대학 인문사회 계열 부동산자산경영학부: 7명
+   - 미래융합대학 인문사회 계열 부동산자산경영학부 (정원외): 17명
+2. **지원자격**:
+   - 산업체 적용 범위: 국가·지방자치단체 및 공공단체, 상시근로자 5인 이상 사업체, 4대 보험 중 1개 이상 가입 사업체
+   - 재직기간: 2024년 3월 1일 기준으로 총 재직기간이 3년 이상
+3. **전형요소 반영비율**:
+   - 서류: 70%
+   - 면접: 30%
+4. **제출서류**:
+   - 고교 학교생활기록부
+   - 검정고시 합격증서 사본 또는 합격증명서
+   - 외국고교 졸업증명서 (공증받은 원본 및 한국어 번역본)
+5. **서류평가 영역**:
+   - 공동체역량: 협업능력
+   - 학업역량: 학업태도, 학업성취
+   - 전공적합성: 열정
+6. **면접평가 영역 및 배점**:
+   - 학업역량: 문제해결능력 (180점)
+   - 전공적합성: 진로정보 탐색능력 (120점)
+7. **동점자 처리기준**:
+   - 면접고사 성적 상위자
+   - 서류평가 공동체역량 영역 성적 상위자
+   - 서류평가 전공적합성 영역 성적 상위자
+이러한 내용을 참고하시면 평생학습자전형에 대한 이해가 향상될 것입니다. 더 자세한 정보나 궁금한 점이 있으시다면 https://ipsi. deu. ac. kr/main. do를 방문해보세요.</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 평생학습자전형의 지원자격에 대한 정보가 아닌, 산업체 적용 범위와 재직기간 산정에 대한 내용을 포함하고 있습니다. 이는 원본 텍스트와 전혀 관련이 없으며, 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 평생학습자전형의 지원자격에 대한 질문에 대한 답변으로 적절하지 않습니다.
+4. Fluency Score (1-5): 4
+   - 문법적으로는 비교적 잘 작성되었으나, 내용이 원본과 관련이 없기 때문에 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 구조가 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 모든 평가 기준에서 낮은 점수를 받아, 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 문장은 이해할 수 있으나, 주제가 다르기 때문에 전체적으로 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.6590372257782058</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 산업체 적용 범위:
+   - 국가 또는 지방자치단체 및 공공단체 (소속 직원의 경우)
+   - 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체
+   - 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)
+2. 재직기간 산정:
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 함
+   - 재직기간은 제출한 지원 자격 증빙 서류 상으로 증명되는 기간만 산정
+   - 2개 이상의 산업체에 재직한 경우 총 재직기간은 합산하여 산정하되, 중복되는 기간은 이중으로 합산하지 않음
+   - 군 의무복무 경력도 재직기간으로 인정함
+이러한 자격 요건을 충족해야 평생학습자전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보를 제공하지 않고 있으며, 원본 텍스트의 핵심 정보를 무시하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 실기고사에 대한 정보가 없다고 주장하고 있습니다. 이는 원본 텍스트의 내용과 모순됩니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 적으며, 실기고사에 대한 정보가 아닌 다른 전형에 대한 정보로 대체하고 있습니다. 따라서 관련성 점수는 낮습니다.
+4. Fluency Score (1-5): 4
+   - 문법적으로는 비교적 잘 작성되었으나, 내용의 일관성이 떨어져서 읽는 이에게 혼란을 줄 수 있습니다. 전반적으로는 유창하지만, 내용의 흐름이 좋지 않습니다.
+5. Coherence Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 떨어집니다. 실기고사에 대한 정보가 없다는 주장은 원본 텍스트와의 일관성을 해칩니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 실기고사에 대한 정보를 제공하지 않기 때문에 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 낮은 점수를 기록하고 있으며, 전반적으로 원본 텍스트와의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 실기고사에 대한 정보가 없다는 주장은 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 문장은 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 중간 정도입니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.3983716656077905</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 실기고사와 관련된 내용이 없습니다. "나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)"의 평가 영역과 방법 등에 대한 정보만 포함되어 있습니다. 실기고사와 관련된 자세한 내용은 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해 보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보를 제공하지 않고, 체육학과의 실기고사가 학교에서 직접 치러진다고 언급하고 있습니다. 그러나 원본 텍스트에는 입실시간에 대한 구체적인 정보가 포함되어 있어, 이 정보가 누락된 것은 사실적 정확성을 떨어뜨립니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 실기고사에 대한 구체적인 장소나 시간에 대한 언급이 없습니다. 원본 텍스트는 특정 날짜와 시간을 명시하고 있지만, 생성된 응답은 이를 무시하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 체육학과의 실기고사에 대한 일반적인 정보는 제공하지만, 원본 텍스트의 핵심 정보인 대기실 및 입실시간에 대한 언급이 없기 때문에 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트의 정보와 관련이 적어 전체적인 일관성이 떨어집니다. 원본 텍스트의 정보와 연결되지 않아 응답이 다소 단절된 느낌을 줍니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 실기고사에 대한 정보가 부정확합니다. 원본 텍스트의 중요한 세부사항이 누락되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다. 원본의 정보와 관련된 내용이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 관련성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0.3718441128283749</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 체육학과의 실기고사와 관련된 특정 장소에 대한 언급이 없습니다. 체육학과의 실기고사는 학교에서 직접 치러진다고 보시는 것이 맞을 것 같습니다. 자세한 사항은 해당 대학의 입학처 또는 관계부서에 문의하시거나, 제공된 링크를 통해 공식 웹사이트를 방문하여 확인해보시기 바랍니다. https://ipsi. deu. ac. kr/main. do</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수시 충원합격자 발표에 대한 정보를 제공하지만, 원본 텍스트에서 명시된 "전화로 개별 연락을 하지 않는다"는 내용을 명확히 반영하지 않고 있습니다. 또한, 3차 이후에만 개별 전화 통보가 이루어진다는 점도 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 전화 통보에 대한 정보가 모호하게 표현되어 있어 일관성이 떨어집니다. 원본 텍스트의 명확한 지침과는 다소 상충하는 부분이 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수시 충원합격자 발표와 관련된 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용인 전화 통보에 대한 명확한 설명이 부족하여 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 전화 통보에 대한 정보가 명확하지 않아 약간의 일관성이 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 일부 반영하고 있지만, 전화 통보에 대한 정확한 정보를 제공하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 전화 통보에 대한 정보가 모호하여 의미 전달이 완벽하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 정보가 모호하여 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.5612018276573482</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수시 충원합격자 발표 후에는 일반적으로 홈페이지에서 개별 조회를 통해 결과를 확인할 수 있습니다. 만약 특정 단과대학이나 모집단위에서 개별 전화 통보를 한다면, 해당 정보는 해당 단과대학의 입학 안내 홈페이지나 공지사항을 통해 알릴 것입니다.
+만약 이러한 정보가 제공되지 않았다면, 홈페이지를 통해 직접 조회하거나, 입학관리팀에 문의하는 것이 좋습니다. 자세한 내용은 [입학 안내 홈페이지](http://ipsi. deu. ac. kr)에서 확인할 수 있습니다.
+https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 2023학년도 경찰행정학과의 수시모집 결과에 대한 구체적인 정보를 제공하지 않으며, 정시 모집 인원에 대한 정보는 출처에 명시되어 있지 않습니다. 따라서 일부 사실은 정확하지만, 전체적으로는 출처와 일치하지 않는 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 출처의 정보와 일부 일치하지만, 정시 모집 인원에 대한 언급은 출처에 포함되어 있지 않으므로 일관성이 떨어집니다. 수시모집 결과에 대한 정보가 없다는 점은 일치하지만, 정시 모집 인원에 대한 정보는 출처와 모순됩니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 수시모집 결과에 대한 정보가 없다는 점을 언급하고 있으며, 추가 정보를 얻기 위한 방법도 제시하고 있습니다. 그러나 정시 모집 인원에 대한 정보는 질문의 핵심 주제와는 관련이 적습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, "https://ipsi. deu. ac. kr/main. do"의 표기에서 불필요한 공백이 있어 약간의 어색함이 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 정시 모집 인원에 대한 언급이 추가되어 있어 약간의 일관성 문제가 발생합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 출처에 명시된 내용과 일치하지 않는 부분이 있어 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 응답은 일부 강점이 있지만, 사실성, 일관성, 정확성에서 부족한 점이 있어 종합적인 품질 점수가 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 의미적으로 적절하며, 출처의 맥락과 잘 맞아떨어집니다. 그러나 정시 모집 인원에 대한 언급은 맥락에서 벗어난 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 다만, 일부 정보가 불필요하게 추가되어 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0.8110004581432452</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 정시 모집 인원은 70명입니다. 그러나 해당 논문 자료에는 2024학년도 경찰행정학과에 대한 정보가 포함되어 있지만, 2023학년도 경찰행정학과의 수시모집 결과에 대한 구체적인 정보는 제공되지 않았습니다.
+이와 관련하여 더 많은 정보를 얻기 위해서는 공식 웹사이트인 "https://ipsi. deu. ac. kr/main. do"를 방문하거나, 대학 입학처에 직접 문의하시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 정시모집 지원자가 수능에 응시하지 않으면 지원할 수 없다는 원문과 상반된 내용을 담고 있습니다. 학생부종합전형과 실기/실적 위주전형에서 수능 응시 여부와 관계없이 지원이 가능하다고 주장하지만, 이는 사실이 아닙니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공하고 있습니다. 원문은 수능에 응시하지 않으면 지원할 수 없다고 명확히 언급하고 있으나, 생성된 응답은 수능 없이도 지원할 수 있는 전형이 있다고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문에 대한 직접적인 답변이 아니며, 관련된 정보는 포함되어 있지만 주제에서 벗어난 내용이 많습니다. 원문 질문에 대한 명확한 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형에 대한 설명이 포함되어 있지만, 원문과의 연결이 약해 논리적인 흐름이 부족합니다. 원문과의 관계가 명확하지 않아 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제시한 사실과 완전히 반대되는 정보를 포함하고 있습니다. 수능에 응시하지 않으면 지원할 수 없다는 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 관계가 전혀 맞지 않으며, 잘못된 정보를 제공합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 의미적으로 부적절한 주장을 포함하고 있어 원문의 맥락과 일치하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 정확성이 결여되어 있어 혼란을 줄 수 있습니다. 원문에 대한 명확한 답변이 부족하여 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0.5931634893495745</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>2024학년도까지의 정보를 바탕으로, 정시모집에서 수능을 응시하지 않아도 지원이 가능한 전형들이 있습니다. 
+1. **학생부종합전형**: 이는 학생부 교과성적, 진로선택과목 성적 등을 평가하는 방식입니다. 수능은 필요하지 않습니다.
+2. **실기/실적 위주전형**: 일부 전형에서는 실기나 실적을 평가하며, 수능 응시 여부에 관계없이 지원이 가능합니다.
+따라서, 정시모집에서 수능을 응시하지 않아도 특정 전형들을 통해 지원할 수 있습니다. 하지만 모든 학과에서 수능 없이 지원 가능한 것은 아닙니다. 각 모집단위별로 지원 자격이 다르므로, 구체적인 모집단위와 전형명을 확인하시기 바랍니다.
+더 자세한 정보를 얻으시려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지나도 정시 지원이 가능하다는 원문과 상반된 내용을 담고 있습니다. 원문에서는 모든 고등학교 졸업생이 정시 지원이 가능하다고 명시하고 있지만, 생성된 응답에서는 10년 이상 경과한 경우 지원할 수 없다고 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순되는 내용을 포함하고 있습니다. 원문은 정시 지원이 가능하다고 명시하고 있으나, 생성된 응답은 정시 지원이 불가능하다고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보를 제공하고 있어 관련성은 있지만 신뢰할 수 없는 정보로 인해 점수가 낮아졌습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 문장 간의 흐름이 자연스럽습니다. 그러나 원문과의 불일치로 인해 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 반대되는 정보를 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받았으며, 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0.6794291876251471</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>2023년 현재의 입학전형에 따르면, 정시모집에서 고등학교 졸업 후 10년 이상 경과한 사람을 지원할 수 없습니다. 따라서 고등학교 졸업한지 10년이 지났다면 정시 모집으로는 지원하실 수 없습니다.
+하지만 나군 학생부종합전형이나 조기취업형계약학과전형 등 특별전형에서는 경력 등을 반영할 수 있으므로, 이러한 전형을 통해 지원 가능할 수 있습니다. 자세한 내용은 "https://ipsi.deu.ac.kr/main.do"를 참조하시거나 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 세부사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0.8413733150678303</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집의 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024년 1월 2일 (화)
+   - 내용: 입학안내 홈페이지에서 공고
+2. **원서접수(인터넷)**:
+   - 시작일: 2024년 1월 3일 (수)
+   - 마감일: 2024년 1월 6일 (토) 18시까지
+   - 접수 사이트: http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com
+3. **서류 제출**:
+   - 시작일: 2024년 1월 3일 (수)
+   - 마감일: 2024년 1월 12일 (금) 17시까지 도착
+   - 내용: 서류 제출 대상은 입학안내 홈페이지에서 확인 가능하며, 접수 사이트에서 우편발송용 표지를 출력하여 부착하거나 우편으로 제출할 수 있습니다.
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**:
+   - 날짜: 2024년 1월 16일 (화)
+   - 내용: 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14시 00분 이후에 입학안내 홈페이지에서 확인 가능합니다.
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**:
+   - 날짜: 2024년 1월 17일 (수)
+   - 내용: 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14시 00분 이후에 입학안내 홈페이지에서 확인 가능합니다.
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14시 00분
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능하며 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 13일 (화) 18시까지
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능하며 등록장소는 학교 지정은행입니다.
+   - 충원 합격자 발표 및 등록 (1차): 2024년 2월 14일 (수) 9시 00분
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능하며 등록장소는 학교 지정은행입니다.
+   - 충원 합격자 발표 및 등록 (1차): 2024년 2월 14일 (수) 9시 00분 ~ 16시 00분
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능하며 등록장소는 학교 지정은행입니다.
+   - 충원 합격자 발표 및 등록 (2차): 2024년 2월 15일 (목) 9시 00분
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능하며 등록장소는 학교 지정은행입니다.
+   - 충원 합격자 발표 및 등록 (2차): 2024년 2월 15일 (목) 9시 00분 ~ 16시 00분
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능하며 등록장소는 학교 지정은행입니다.
+   - 충원 합격자 발표 및 등록 (3차 이후): 2024년 2월 15일 (목) 19시 00분 ~ 2024년 2월 20일 (화) 18시까지
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능하며 등록장소는 학교 지정은행입니다.
+이상이 동의대학교 정시 모집의 일정입니다. 자세한 정보는 입학안내 홈페이지를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 절차에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 주제를 완벽하게 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적인 흐름이 잘 유지되고 있으며, 각 항목이 명확하게 구분되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완벽하게 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.9347534921323911</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024년 1월 2일 (화)
+   - 내용: 입학안내 홈페이지에서 공고
+2. **원서접수(인터넷)**:
+   - 시작일: 2024년 1월 3일 (수)
+   - 마감일: 2024년 1월 6일 (토) 18시까지
+   - 접수 사이트: http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com
+3. **서류 제출**:
+   - 시작일: 2024년 1월 3일 (수)
+   - 마감일: 2024년 1월 12일 (금) 17시까지 도착
+   - 내용: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사**:
+   - 태권도학과, 레저스포츠학과 (일정): 2024년 1월 16일 (화)
+   - 내용: 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14시 00분 이후에 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사**:
+   - 디자인조형학과, 체육학과 (일정): 2024년 1월 17일 (수)
+   - 내용: 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14시 00분 이후에 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14시 00분
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소는 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화) (은행마감시간 내)
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소는 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 발표 및 등록: 2024년 2월 14일 (수) 09시 00분 ~ 16시 00분
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소는 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 발표 및 등록: 2024년 2월 15일 (목) 09시 00분 ~ 16시 00분
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소는 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 발표 및 등록: 2024년 2월 15일 (목) 19시 00분 ~ 2024년 2월 20일 (화) 18시까지
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소는 학교 지정은행(등록금 고지서에 기재)
+이 일정을 참고하여 원서접수와 서류 제출 등을 진행하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 정시 모집 전형에서 수능 미응시자가 지원할 수 없다는 사실을 부정확하게 전달하고 있습니다. 원문에서는 수능 성적이 요구되며, 수능 미응시자는 지원이 불가능하다고 명확히 언급하고 있습니다. 그러나 생성된 응답은 수능 미응시자가 지원할 수 있는 특별전형이 있을 수 있다고 주장하고 있어 사실과 상충합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문에서는 수능 미응시자가 지원할 수 없다고 명확히 설명하고 있지만, 생성된 응답은 수능 미응시자가 지원할 수 있는 전형이 있을 수 있다고 언급하여 서로 모순되는 정보를 제공합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교의 정시 모집 전형에 대한 질문에 대해 일부 관련 정보를 제공하고 있지만, 원문에서 명시된 수능 미응시자의 지원 불가능성에 대한 핵심 정보를 간과하고 있습니다. 따라서 관련성은 있지만, 핵심적인 사실을 놓치고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 불필요한 반복이 있어 약간의 매끄러움이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 수능 미응시자에 대한 정보가 명확히 정리되지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다릅니다. 수능 미응시자가 지원할 수 없다는 사실을 왜곡하고 있으며, 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 낮은 점수를 받고 있습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와 다르게 해석되고 있으며, 수능 미응시자에 대한 정보가 부정확하게 전달되고 있습니다. 따라서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 원문과의 불일치로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 있지만, 명확하지 않은 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.7439899954233216</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교에서 수능 미응시자도 지원이 가능한 정시 모집 전형에 대한 명확한 정보가 없습니다. 그러나 일부 특별전형에서는 수능 미응시자를 대상으로 하고 있을 수 있습니다.
+특히, "나군 학생부종합(평생학습자전형),  &lt;나&gt;군 학생부종합(성인학습자(정원내)전형),  &lt;나&gt;군 학생부종합(성인학습자(정원외)전형)" 등은 주로 성인학습자 또는 평생학습자를 대상으로 하는 전형으로, 수능 미응시자도 지원이 가능할 수 있습니다.
+따라서, 정확한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트(https://ipsi. deu. ac. kr/main. do) 또는 학교 입학상담을 통해 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 전자공학과의 충원 합격에 대한 구체적인 정보를 제공하지 않고, 2024년 데이터를 바탕으로 한 추론을 제시하고 있습니다. 그러나 원본 텍스트에서 제공된 36명이라는 구체적인 사실을 무시하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 충원 합격 차수에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 1차에서 이루어진다고 언급하고 있어 모순이 발생합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 전자공학과의 충원 합격에 대한 정보를 제공하려고 하지만, 원본 텍스트의 핵심 질문에 대한 직접적인 답변을 제공하지 않고 있습니다. 따라서 관련성은 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 정보가 분리되어 있어 통합된 느낌이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 전년도 충원 합격에 대한 구체적인 수치를 제공하지 않고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다. 따라서 적절성 점수는 중간입니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원본 텍스트와의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.5409216316714164</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>2024년 데이터를 바탕으로 추론해보면, 전자공학과의 경우 "수능 4개 영역 (가산점 포함) 표준 변환 점수 합"의 평균이 539.24이고, 표준 편차가 0.79로 매우 일관된 결과를 보여주고 있습니다. 이와 유사한 경향을 가진 다른 전공들과 비교해보면, 전자공학과의 충원 합격은 대체적으로 1차에서 이루어지곤 합니다.
+하지만 정확한 정보는 전년도 데이터를 확인해야 하므로, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해보시거나, 입학처에 직접 문의하시면 더 정확한 답변을 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호가 포함되어 있다고 명시된 원본 텍스트와 상반되는 내용을 담고 있습니다. 원본 텍스트에 명확히 제시된 전화번호를 무시하고, 전화번호가 포함되어 있지 않다고 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 전혀 없습니다. 원본 텍스트는 전화번호를 제공하고 있지만, 생성된 응답은 전화번호가 없다고 주장하고 있습니다. 이는 명백한 모순입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 전화번호를 제공하지 않고 웹사이트를 방문하라는 제안으로 대체하고 있습니다. 원본 텍스트의 핵심 정보를 무시하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 불일치로 인해 일관성이 떨어집니다. 전화번호가 없다는 주장은 원본 텍스트와의 연결이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있습니다. 전화번호가 명시되어 있음에도 불구하고 이를 부정하는 내용은 심각한 부정확성을 나타냅니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트의 핵심 정보를 무시하고 잘못된 정보를 제공하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 해석하고 있습니다. 전화번호가 없다는 주장은 원본의 의미와 상충합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 표현을 사용하고 있습니다. 그러나 내용의 부정확성으로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.6837528487721977</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 입학처의 전화번호가 포함되어 있지 않습니다. 필요하신 전화번호를 찾기 위해 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문해 보시는 것을 추천드립니다. 해당 페이지에서 입학처 연락처 정보를 확인하실 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 전화 통화가 되지 않는 경우의 처리 방법에 대해 구체적으로 설명하고 있지만, 원본 텍스트에서 언급된 "전화 연락이 두절되어(3회 통화 시도)"라는 부분이 누락되어 있습니다. 또한, 원본 텍스트는 전화 통화가 되지 않을 경우 등록 의사가 없는 것으로 간주된다고 명시하고 있으나, 생성된 응답에서는 이러한 중요한 사실이 반영되지 않았습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보가 포함되어 있습니다. 원본 텍스트는 전화 통화가 되지 않을 경우 등록 포기자로 처리된다고 명시하고 있지만, 생성된 응답에서는 재통보, 메일 발송, 입학관리팀 방문 등의 절차를 제시하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 전화 통화가 되지 않는 경우의 처리 방법에 대한 정보를 제공하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 내용인 등록 포기자로 처리되는 부분이 누락되어 있어 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 잘 구성되어 있어 읽기 쉽습니다. 따라서 유창성 점수는 높게 평가할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 절차가 명확하게 나열되어 있어 일관된 흐름을 유지하고 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 완전한 일관성은 아닙니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 중요한 사실을 누락하고 있으며, 전화 통화가 되지 않을 경우의 처리 방식에 대한 정보가 원본과 다르게 제시되고 있습니다. 따라서 정확성 점수는 낮게 평가됩니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 유창성과 관련성에서는 긍정적인 평가를 받지만, 사실성, 일관성, 정확성에서 부족함이 있어 전반적인 품질 점수는 중간 정도로 평가됩니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 핵심 내용을 반영하지 않아 의미의 적절성에서 부족함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조로 되어 있으나, 원본 텍스트와의 연결이 부족하여 일부 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.6344814280590267</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화 통보 시, 전화 통화가 되지 않는 경우는 다음과 같이 처리됩니다:
+1. **재통보**: 초기의 전화 통보 시도가 실패한 경우에는 다시 재통보를 진행합니다.
+2. **메일 발송**: 전화 통보에 실패한 경우 메일을 통해 합격자 발표 및 등록 안내를 발송합니다.
+3. **입학관리팀 방문**: 학생이 직접 입학관리팀을 방문하여 합격 사실과 등록 방법을 확인할 수 있도록 지원합니다.
+4. **홈페이지 조회**: 합격자 발표는 홈페이지에서 개별적으로 조회 가능하므로, 학생은 홈페이지를 통해 자신의 합격 여부를 확인할 수 있습니다.
+이러한 절차들을 통해 합격 사실과 등록 방법을 안내하고, 학생들이 충분히 정보를 얻을 수 있도록 지원합니다.</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 제출해야 할 서류의 주요 내용을 잘 반영하고 있으나, 일부 세부사항이 누락되거나 다르게 표현되어 있어 완전한 정확성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 3
+   - 응답은 원본 텍스트의 내용을 대체로 따르지만, 일부 정보가 다르게 표현되어 있어 일관성이 떨어지는 부분이 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 포함하고 있으며, 주요 포인트를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽고 자연스럽습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있어 이해하기 쉽습니다.
+6. Accuracy Score (1-5): 4
+   - 응답은 대부분의 사실을 정확하게 반영하고 있으나, 일부 세부사항이 누락되어 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으나, 일부 표현에서 약간의 차이가 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0.7399372046343757</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 유형에 따라 다릅니다. 주요 서류들은 다음과 같습니다:
+1. **6년 과정**
+   - 지원자 본인의 가족관계증명서 1부
+   - 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+   - 중학교 학교생활기록부 1부
+   - 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+2. **12년 과정**
+   - 지원자 본인의 주민등록초본 1부
+   - 초등학교 학교생활기록부 1부
+   - 중학교 학교생활기록부 1부
+   - 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+3. **추가 제출서류**
+   - 고교 졸업증명서, 지원자 본인, 부모 초본 각 1부 (총 3부) (6년 과정)
+   - 고교 졸업증명서, 지원자 본인 초본 1부 (12년 과정)
+이러한 서류들은 농어촌 지역에 거주한 경력을 입증하는 데 사용됩니다. 자세한 내용은 "나군 학생부교과(농어촌학생전형) - 정원외 지원자격" 및 "정원외 제출서류" 항목을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 필요한 서류 목록을 정확히 나열하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 서류 목록과 추가 요구 사항이 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 필요한 서류에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 약간의 문장 구조 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.8566117746230738</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원 시 제출해야하는 서류는 다음과 같습니다.
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+   - 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+이러한 서류들을 준비하여 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 기회균등 전형이 존재하지 않는다는 사실을 언급하지 않고, 대신 정보가 없다고 말하고 있습니다. 이는 원문과 일치하지 않으며, 사실을 정확히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 제공하고 있으며, 기회균등 전형의 존재 여부에 대한 모호한 답변을 하고 있습니다. 이는 원문과의 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 언급된 기회균등 전형에 대한 질문에 대해 관련된 정보를 제공하고 있으나, 원문에서 명확히 언급된 내용을 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 연결이 부족하여 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실을 정확히 반영하지 않으며, 기회균등 전형의 존재 여부에 대한 잘못된 해석을 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 양호하지만, 사실성과 일관성에서 큰 문제를 보이고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 의미적으로 원문과의 일치성이 부족하여 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원문과의 연결이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.4937676441915739</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有提到关于普通招生中的低收入机会均等类型的选拔，因此无法直接回答是否有此类选拔。如果您想了解这方面的信息，建议访问以下网站获取最新和详细的信息：https://ipsi. deu. ac. kr/main. do
+사이트를 참조하여 관련 정보를 확인해주세요.</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 최저등급에서 사탐 2 과목의 평균산출이 절사 대상이 아니라고 주장하지만, 이는 원본 텍스트에서 명시된 정보와 상충합니다. 원본 텍스트는 절사 여부에 대한 구체적인 정보를 제공하지 않으므로, 생성된 응답은 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 절사 여부에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 절사 대상이 아니라고 단정짓고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 주제와 관련이 있지만, 원본 텍스트의 핵심 정보를 왜곡하고 있습니다. 그러나 질문에 대한 답변을 제공하고 있어 관련성은 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 명확하게 연결되지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르게 절사 여부에 대한 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락을 왜곡하고 있어 의미의 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.6213965139832173</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>2.5 등급을 받았다면, 그대로 2.5 등급으로 처리됩니다. 수능 최저등급에서 사탐 2 과목의 평균산출은 절사 대상이 아니므로 2.5 등급 그대로를 사용합니다.
+만약에 사탐 2 과목 중 하나가 3등급이고 다른 하나가 2등급이라면, 이 경우는 절사 대상이 되어 2.5 등급으로 처리됩니다.
+따라서 2.5 등급을 받았다면 그대로 사용하면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 "정시 충원 합격자 발표는 총 4차로 이루어집니다."라고 언급하고 있지만, 원본 텍스트에서는 3차까지 발표가 이루어진다고 명시되어 있습니다. 따라서 사실과 일치하지 않는 부분이 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 4차 발표가 있다고 주장하는 반면, 원본 텍스트는 3차까지 발표가 있다고 명시하고 있습니다. 이로 인해 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 발표 일정에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 정보를 체계적으로 제시하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 4차 발표가 있다고 잘못된 정보를 제공하고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 일부 강점을 보이지만, 사실성과 일관성에서 큰 결함이 있어 중간 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0.8227244225888527</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 4차로 이루어집니다. 
+1. **1차 충원 합격자 발표**: 2024년 2월 14일(수) 09:00에 발표됩니다.
+2. **2차 충원 합격자 발표**: 2024년 2월 15일(목) 09:00에 발표됩니다.
+3. **3차 이후 충원 합격자 발표**: 이는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지 개별 전화 통보를 통해 이루어집니다.
+이와 같이 총 4차로 충원 합격자 발표가 이루어지며, 각 차례마다 홈페이지에서 개별 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 e-비즈니스학과의 정시 전형에 대한 구체적인 정보가 부족하다고 언급하고 있지만, 원본 텍스트에서 제공된 평균 점수와 관련된 정보는 무시하고 있습니다. 따라서 일부 사실은 반영되었으나, 중요한 세부사항이 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 있습니다. 원본 텍스트는 수능 성적이 4.6점일 경우 합격 가능성을 언급하고 있지만, 생성된 응답은 추가 합격 가능성을 판단하기 어렵다고 하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 e-비즈니스학과의 추가 합격 가능성에 대한 질문에 대해 관련된 정보를 제공하려고 하지만, 원본 텍스트의 구체적인 점수 정보를 활용하지 않아 다소 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 질문에 대한 답변을 명확하게 제시하고 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 일부 반영하고 있으나, 중요한 세부사항이 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트의 정보와의 연결이 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 반응하고 있으며, 의미적으로 적절한 내용을 담고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 언어로 작성되어 있습니다. 다만, 원본 텍스트와의 연결이 부족하여 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.4823802922364874</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 "e비즈니스학과"에 대한 특정한 전형명이나 모집단위, 성적 기준 등이 명시되어 있지 않습니다. 따라서 e비즈니스학과의 정시 전형으로 추가 합격 가능 여부를 판단하기 어렵습니다.
+추가 정보를 제공해 주시면 더 정확한 답변을 드릴 수 있습니다. 특히 다음과 같은 정보가 필요합니다:
+- e비즈니스학과의 모집단위
+- 해당 모집단위에서의 정시 전형 성적 기준
+이런 정보들이 있다면, 제공된 수능 성적이 4.6인 경우 해당 학과와 전형으로 추가로 합격 가능할지 판단하는데 도움이 될 것입니다.
+더 궁금하신 점이 있으시다면 https://ipsi. deu. ac. kr/main. do 를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 e비즈니스학과의 평균 영어 등급과 수능 4개 영역 등급 평균을 언급하며, 정시 등급 5.3에 대한 합격 가능성을 논의하고 있습니다. 그러나 일부 세부사항(예: 점수 변환 방법)에서 정확한 정보가 부족할 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 추가적인 세부사항(예: 국어국문학과의 평균 점수와 표준 편차)으로 인해 일관성이 떨어질 수 있습니다. 원본 텍스트의 핵심 정보와는 다소 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, e비즈니스학과의 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 일부 부분에서 정보의 연결이 매끄럽지 않을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 특정 세부사항(예: 점수 변환)에 대한 정확성이 부족할 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 세부사항에서 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 추가 정보가 원본의 의도와 다를 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 복잡하여 다소 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0.7743294063366096</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 수능 성적 기준을 확인해보겠습니다.
+e비즈니스학과는 "나군(일반학생전형)"으로 모집되며, 그 전형성적 산출 방법은 다음과 같습니다:
+- 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+영어 등급 점수는 다음과 같이 변환됩니다:
+- 등급 5.3의 경우, 점수가 107입니다.
+따라서 e비즈니스학과에 지원하려면 최소한 다음과 같은 성적을 가져야 합니다:
+- 국어 표준점수 + 수학 표준점수 + 107 (영어 등급점수) + 탐구 표준점수
+정시 등급 5.3이 107 점으로 변환되므로, 지원자의 성적과 e비즈니스학과의 기준을 비교해보겠습니다.
+2024학년도 인문사회과학대학 국어국문학과의 경우, 평균 점수와 표준 편차를 보면:
+- 평균 303.44
+- 표준 편차 10.34
+이 기준을 고려하면, 정시 등급 5.3 (107점)은 평균보다 약간 낮습니다. 그러나 표준 편차를 고려할 때, 이 점수는 상당히 가까운 범위에 속합니다.
+따라서 정시 등급 5.3이면 e비즈니스학과의 최초 합격 가능성은 있을 수 있습니다만, 경쟁률과 지원 인원 등을 고려하면 확실한 것은 아닙니다. 실제 지원 결과는 지원자의 성적 외에도 다른 요인들에 의해 결정될 수 있으므로, 정확한 예측을 위해서는 더 많은 정보를 확인해보시는 것이 좋습니다.
+더 자세한 정보나 추가 질문이 있다면 https://ipsi. deu. ac. kr/main. do 에 접속하여 확인하시거나 문의하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 예비 38번의 합격 가능성에 대한 정보가 부족하다고 언급하고 있지만, 원본 텍스트에서는 예비 38번의 합격 가능성이 낮다고 명확히 언급하고 있습니다. 따라서, 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 내용을 반영하지 않고, 추가적인 정보가 필요하다고 주장합니다. 이는 원본 텍스트의 명확한 결론과 상충하므로 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 4  
+   - 생성된 응답은 예비 합격 여부에 대한 질문에 대해 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 예비 38번의 합격 가능성에 대한 직접적인 답변이 부족합니다. 따라서 관련성 점수는 다소 높지만 완전하지는 않습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트의 주제와 연결되지 않아 논리적 흐름이 약간 부족합니다. 따라서 일관성 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 예비 38번의 합격 가능성에 대한 명확한 정보를 제공하지 않습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 여러 차원에서 응답이 원본 텍스트와 일치하지 않으며, 전반적으로 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 따라서 의미 적합성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 정보가 과도하게 복잡하게 제시되어 있어 이해하기 어려운 부분이 있을 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.4541610855584235</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 정확한 예비합격 여부를 판단하기 어렵습니다. 이정도 점수로는 어떤 전형에 지원했는지, 해당 전형의 합격 기준이 무엇인지 등 추가적인 정보가 필요합니다.
+특히, 수능 성적과 실기/실적 등의 평균 점수가 중요하며, 모집인원과 지원 인원, 경쟁률 등을 고려해야 합니다. 예를 들어:
+1. **나군(일반학생전형)**: 이 경우 국어, 수학, 영어, 탐구 등급점수와 가산점을 합산한 점수가 중요합니다.
+2. **다군(일반학생전형)**: 이 경우에는 수능 4개 영역의 표준점수를 합산한 점수가 주요 기준이 됩니다.
+따라서, 정확한 판단을 위해서는:
+- 지원하고자 하는 전형명과 모집단위
+- 해당 전형의 수능 성적 및 실기/실적 등 평균 점수와 합격 기준
+- 현재 지원 인원과 경쟁률 등을 확인해야 합니다.
+추가 정보를 제공해 주시면, 더 정확한 답변을 드릴 수 있습니다. 필요하다면, 관련 웹사이트 (https://ipsi. deu.ac.kr/main.do)에서 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 지원 자격에 대한 정보를 포함하고 있으며, 3.44라는 점수가 평균보다 약간 높다는 점을 언급하고 있습니다. 그러나 표준 편차에 대한 언급은 원문에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, 표준 편차에 대한 언급이 추가되어 있어 원문과의 일관성이 떨어질 수 있습니다. 또한, 지원 자격에 대한 정보는 원문에 포함되어 있지 않아 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 간호학과의 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 지원 자격에 대한 정보가 추가되면서 약간의 흐름이 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보가 정확하지만, 표준 편차에 대한 언급이 원문에 없기 때문에 정확성에서 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 요소에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 맞아떨어지지만, 표준 편차에 대한 언급이 원문과의 의미적 일관성을 약간 해칠 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.6532995400032561</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>3.44이라는 점수는 동의대학교 간호학과의 수능 4개 영역 등급 평균인 "3.37"보다 약간 높습니다. 하지만 표준 편차가 0.29이므로, 이 정도 차이는 큰 의미를 가지지 않을 것입니다.
+동의대학교 간호학과의 지원 자격은 다음과 같습니다:
+- 일반고
+- 자율고
+- 특수목적고 (과학고, 국제고, 외국어고)
+- 특성화고 (특성(직업), 특성(대안))
+- 영재학교
+- 학력인정고
+- 방송통신고
+- 각종학교
+- 검정고시
+- 외국고
+당신의 고교 유형이 위에서 언급된 자격 중 하나라면 지원 가능합니다.
+결론적으로, 3.44라는 점수로는 합격 가능성은 있지만 확실한 것은 아닙니다. 동의대학교 간호학과의 경쟁률과 지원 인원 등을 고려하여 더 정확한 판단을 내리시는 것이 좋겠습니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 통해 공식 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 사실을 포함하고 있지만, 평균 수능 4개 영역 등급과 관련된 정보가 정확하지 않거나 불완전합니다. 예를 들어, 평균 점수와 관련된 세부 사항이 명확하지 않으며, 2.52 등급의 영어 점수가 91점이라는 정보는 출처에서 제공된 정보와 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 일부 일관성을 유지하고 있지만, 평균 점수와 관련된 정보가 모호하여 일관성이 떨어집니다. 특히, 국어+수학+탐구(2개) 점수에 대한 언급이 출처와 일치하지 않아서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있으며, 간호학과의 합격 가능성에 대한 논의가 포함되어 있습니다. 그러나 일부 세부 사항은 주제와 직접적으로 관련이 없을 수 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 요인이 어떻게 합격 가능성에 영향을 미치는지를 설명하고 있습니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 평균 점수와 관련된 세부 사항이 불확실하여 정확성이 떨어집니다. 특히, 2.52 등급의 영어 점수와 관련된 정보가 출처와 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다. 그러나 일부 세부 사항은 맥락에서 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 복잡한 문장은 이해를 어렵게 할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.6707678771196438</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>2.52 등급의 수능 영어 점수는 91점에 해당합니다. 동의대학교 간호학과의 경우, 평균 수능 4개 영역 (가산점 포함) 표준 변환 점수 합은 481.70이며, 이 값이 매우 높습니다.
+현재 제공된 데이터만으로는 정확한 판단을 내리기 어렵지만, 다음과 같은 요인들을 고려해볼 수 있습니다:
+1. **경쟁률**: 동의대학교 간호학과의 경쟁률은 6.59입니다. 이는 매우 높습니다.
+2. **평균 점수**: 평균 점수가 481.70이므로, 303점대의 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합은 상당히 낮습니다.
+3. **영어 점수**: 평균 영어 등급 점수가 2.34이므로, 91점의 영어 점수는 이보다 높습니다.
+따라서, 2.52 등급의 영어 점수와 함께 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합이 303.44라는 것을 고려하면, 이는 매우 낮은 수치로, 최종 합격 가능성은 매우 낮다고 판단할 수 있습니다.
+하지만, 정확한 판단을 내리기 위해서는 동의대학교 간호학과의 최종 합격자들의 성적 분포와 지원자의 전체적인 경쟁 상황 등을 더 자세히 파악해야 합니다. 따라서, "https://ipsi. deu. ac. kr/main. do"를 참조하여 더 자세한 정보를 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 관련된 정보를 포함하고 있으며, 3.7의 GPA가 낮은 성적이라는 점을 언급하고 있습니다. 그러나, 실기 부분의 중요성에 대한 언급은 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 대체로 따르지만, 실기 부분의 중요성을 강조하는 부분에서 일관성이 떨어집니다. 원본 텍스트는 수능 등급에 대한 정보만 제공하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 간호학과의 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나, 실기 부분에 대한 언급이 원본 텍스트와의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보가 정확하지만, 실기 부분의 중요성에 대한 언급이 원본 텍스트에 포함되어 있지 않아 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 세부 사항에서 약간의 부정확성이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 실기 부분의 중요성에 대한 언급이 원본 텍스트와의 의미적 일치를 약간 떨어뜨립니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.6858813260089993</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>3.7의 GPA로 간호학과에 정시로 합격하기는 어렵다고 볼 수 있습니다. 간호학과는 보통 높은 성적을 요구하며, 특히 실기 부분도 중요하게 평가받습니다.
+2024년도 모집요강을 보면, 간호학과의 경우 다음과 같은 특징이 있습니다:
+- 학생부교과성적 반영: 18%
+- 출결: 12%
+- 서류평가(실적): 70%
+3.7의 GPA는 대체로 중간 이상의 성적을 의미하지만, 간호학과에서는 보통 4.0이상의 고득점을 요구하는 경우가 많습니다.
+따라서, 정시로 간호학과에 합격하기 위해서는:
+1. 높은 GPA를 유지해야 합니다.
+2. 실기 부분에서 우수한 성적을 받아야 합니다.
+3. 서류평가에서도 좋은 점수를 받을 수 있어야 합니다.
+만약 현재의 성적이 간호학과에 충분하지 않다면, 다른 전형이나 학과를 고려해 보는 것이 좋습니다. 더 자세한 정보는 해당 대학의 입시 홈페이지(https://ipsi. deu.ac.kr/main.do)를 참조하시거나, 입시 상담을 받으시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 관련된 정보를 포함하고 있지만, "정시 성적이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다."라는 원문 내용과는 상반된 주장을 하고 있습니다. 따라서 일부 사실이 왜곡되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 관련된 정보를 제공하지만, 원문과의 일관성이 부족합니다. 원문에서는 2.58이 평균보다 높은 성적이라고 했으나, 생성된 응답에서는 낮다고 언급하고 있어 모순이 발생합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 정시 모집에 대한 정보를 제공하며, 지원 자격과 관련된 내용도 포함되어 있어 관련성이 높습니다. 그러나 원문에서의 핵심 질문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문단이 주제를 잘 연결하고 있습니다. 그러나 원문과의 일관성이 떨어져서 전체적인 일관성에는 약간의 문제가 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원문과의 사실적 일치가 부족하여 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원문과의 의미적 일치가 부족하여 점수가 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 내용으로 구성되어 있으며, 명확한 정보 전달이 이루어졌습니다. 다만, 일부 문장이 길어 이해하는 데 시간이 걸릴 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0.6482151677495159</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집에 대한 정보를 보면, 지원 자격은 다음과 같습니다:
+- 일반고, 자율고, 특수목적고 (과학고, 국제고, 외국어고 포함), 예술고, 체육고, 마이스터고, 특성화고 (특성(직업) 및 특성(대안)), 영재학교, 학력인정고, 방송통신고, 각종학교, 검정고시, 외국고 지원 가능합니다.
+또한, 간호학과의 수능 4개 영역 등급의 평균은 3.37이고, 표준 편차는 0.29입니다. 이는 간호학과에 대한 학업 역량의 기준을 나타내는데, 평균이 3.37이며 표준 편차가 작다는 것은 점수 분포가 좁고 일관성이 있다는 것을 의미합니다.
+당신의 정시 성적이 2.58이라면, 이는 간호학과의 수능 등급 평균인 3.37보다 낮습니다. 그러나 표준 편차가 작다는 점을 고려하면, 이 점수도 일부 학생들에게는 충분히 좋은 성적일 수 있습니다.
+결론적으로, 정시 성적이 2.58이라면 간호학과에 정시 전형으로 합격할 확률은 낮지만, 여전히 지원 가능합니다. 실제로 많은 학생들이 평균보다 낮은 점수로도 합격하는 경우가 있습니다.
+따라서, 최종 결정을 내리기 위해서는 동의대학교 간호학과의 정시 모집에 대한 전체적인 정보를 더 확인하고, 자신의 성적과 경쟁력을 고려해야 합니다. 또한, 다른 전형 (예: 특별전형 등)도 함께 검토해 보는 것이 좋습니다.
+더 자세한 정보나 추가 질문이 있으시다면, https://ipsi. deu. ac. kr/main. do를 참조하시거나 동의대학교 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예비번호 3번에 대한 정보를 제공하고 있지만, 원본 텍스트에서는 예비번호 7번에 대한 내용이 명시되어 있습니다. 따라서, 예비번호 3번에 대한 정보는 원본 텍스트와 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 예비번호 3번에 대한 내용을 다루고 있어 원본 텍스트의 예비번호 7번과 상충합니다. 이로 인해 응답은 일관성이 없으며, 서로 모순되는 정보를 제공합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 예비번호 3번에 대한 정보는 원본 텍스트의 핵심 질문과는 관련이 없습니다. 따라서, 응답의 관련성은 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 나쁘지 않지만, 원본 텍스트와의 불일치로 인해 논리적인 흐름이 약간 깨집니다. 예비번호에 대한 정보가 일관되지 않아 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 예비번호 3번에 대한 잘못된 정보를 제공하고 있으며, 원본 텍스트의 사실과 크게 다릅니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 낮은 점수를 받았습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 맥락과는 다소 어긋나 있으며, 예비번호에 대한 잘못된 정보를 제공하고 있습니다. 따라서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있어 이해하기 어렵지 않지만, 내용의 정확성과 관련성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0.5702261870257427</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>2024년 게임공학과의 모집인원은 40명이며, 현재 가군(일반 학생)에서 지원하신 예비번호가 3번입니다. 따라서 아직 모집 인원 내에 자리가 남아 있는 상태입니다.
+하지만 확실한 결과를 얻기 위해서는 다음 단계의 전형 일정을 지켜봐야 합니다:
+1. **2024년 01월 03일(수) ~ 06일(토)** 원서 접수 마감
+2. **2024년 01월 16일(화)** &lt;가&gt;군 실기고사 (태권도학과)
+3. **2024년 01월 17일(수)** &lt;나&gt;군 실기고사 (디자인조형학과)
+원서 접수 후 실기고사를 치르게 되며, 그 결과에 따라 합격 여부가 결정됩니다. 따라서 아직 붙을 수 있는 상태이지만, 정확한 결과는 실기고사 이후에 발표되는 합격자 명단에서 확인할 수 있습니다.
+더 궁금하신 사항이나 추가 정보가 필요하시다면 https://ipsi. deu. ac. kr/main. do를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 수능 점수 4.16이 동의대학교 게임공학과의 평균 등급보다 높은 성적이라는 사실을 반영하고 있으며, 추가 합격 가능성에 대한 언급도 포함되어 있습니다. 그러나, 구체적인 성적 기준이나 변환 방법에 대한 정보가 부족하다는 점에서 완전한 정확성을 결여하고 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용을 잘 반영하고 있으며, 추가 합격 가능성에 대한 논의가 일관되게 이어집니다. 다만, 원본 텍스트에서 언급된 "추가 합격 몇 번을 받을지는 예측하기 어렵습니다"라는 부분이 명확히 반영되지 않았습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하며, 수능 점수와 관련된 여러 요소를 고려하는 방식으로 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 다만, 일부 문장이 더 명확하게 연결될 수 있는 여지가 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 수능 점수와 관련된 정보도 정확하게 전달하고 있습니다. 그러나, 구체적인 성적 기준에 대한 정보가 부족하여 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 기록하고 있습니다. 그러나 일부 세부 사항에서 개선의 여지가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 부분에서 더 명확한 표현이 필요할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0.6746539964830137</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>4.16이라는 수능 점수를 가지고 동의대학교 게임공학과에 지원하려는 경우, 정시 전형에서 추가 합격이 가능한지 판단하기 위해서는 몇 가지 요소를 고려해야 합니다.
+1. **전형별 성적 기준**: 동의대학교 게임공학과의 정시 전형에서 요구하는 최저 성적 기준을 확인해야 합니다. 이 정보가 제공되지 않았기 때문에, 해당 정보를 찾아보아야 합니다.
+2. **수능 점수 변환**: 4.16이라는 수능 점수가 어떤 영역별로 나누어져 있는지, 그리고 각 영역의 성적 변환 방법을 고려해야 합니다. 예를 들어, 국어, 수학, 영어, 탐구 등 각 영역별로 표준점수와 등급점수를 어떻게 변환하는지 확인해야 합니다.
+3. **전형별 합격 기준**: 동의대학교 게임공학과에서 정시 전형으로 지원할 때 어떤 전형별 합격 기준을 가지고 있는지를 확인해야 합니다.
+위의 요소들을 종합적으로 고려하여 판단해야 하지만, 현재 제공된 정보만으로는 확정적인 답변을 드릴 수 없습니다. 따라서, 동의대학교 게임공학과의 정시 전형에 대한 최신 성적 기준 및 합격 기준을 확인하시거나, 해당 대학의 입학처 웹사이트를 참조하거나 문의하는 것이 좋습니다.
+더 자세한 정보를 얻기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해 보시거나, 입학처에 직접 문의하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 정시 모집에 대한 최신 전형요소를 알 수 없다고 언급하고 있지만, 원본 텍스트에서는 현재 정시 등급이 3.75일 경우 합격 가능성이 높다고 명시하고 있습니다. 따라서, 응답이 원본의 정보를 완전히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 합격 가능성에 대한 긍정적인 정보가 누락되어 있습니다. 원본 텍스트는 합격 가능성이 높다고 명시하고 있으나, 생성된 응답은 그에 대한 언급이 없습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 정시 모집에 대한 정보를 제공하고 있으며, 관련 웹사이트를 안내하고 있습니다. 그러나 원본 텍스트의 핵심 정보인 합격 가능성에 대한 언급이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달되고 있습니다. 그러나 원본 텍스트의 핵심 내용을 반영하지 못한 점에서 약간의 일관성 부족이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 일부 반영하고 있지만, 합격 가능성에 대한 정보가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트의 핵심 정보를 충분히 반영하지 못해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 경영정보학과의 정시 모집에 대한 정보를 제공하고 있습니다. 그러나 원본의 핵심 메시지를 놓친 점에서 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 정보를 전달하고 있습니다. 다만, 원본 텍스트의 핵심 내용을 포함하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0.5583004574904963</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과의 정시 모집에 대한 최신 전형요소를 정확히 알 수 없습니다. 경영정보학과의 정시 모집에 대한 최신 전형요소와 성적 기준을 확인하려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문하여 공식 정보를 확인해보세요. 해당 페이지에서 가장 최신의 모집요강과 전형요소를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성을 판단하기 위해 추가적인 정보가 필요하다고 언급하고 있지만, 원본 텍스트에서 제공된 구체적인 평균 등급(영어 2.88, 수능 3.88)과 현재 정시 등급(4.2)에 대한 정보는 반영되지 않았습니다. 따라서 일부 사실이 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부분 일치하지만, 합격 가능성에 대한 판단을 위한 추가 정보가 필요하다는 점에서 원본의 결론과는 다소 상충합니다. 원본 텍스트는 합격 가능성이 낮다고 명확히 언급하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있지만, 원본 텍스트의 구체적인 수치와 결론을 충분히 반영하지 못하고 있습니다. 그러나 여전히 관련된 주제를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달되고 있습니다. 그러나 원본 텍스트의 결론과는 다소 다른 방향으로 흐르고 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 수치와 결론을 반영하지 않아 정확성이 떨어집니다. 원본의 평균 등급과 합격 가능성에 대한 명확한 정보를 제공하지 않고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 원본 텍스트의 핵심 사실을 충분히 반영하지 못하고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 경영정보학과의 합격 가능성에 대한 질문에 적합한 정보를 제공합니다. 그러나 원본의 구체적인 사실을 반영하지 못한 점은 아쉽습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 다만, 원본 텍스트의 구체적인 수치와 결론이 누락되어 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0.6714279237676781</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과의 정시 합격 가능성 판단이 어렵습니다. 경영정보학과의 정시 합격을 위해서는 해당 단과대학 및 모집단위의 모집인원, 지원 인원, 경쟁률 등 추가적인 정보가 필요합니다.
+특히, "수능(일반학생전형) 최초합격자" 항목에서 각 단과대학별로 2024학년도 모집단위에 대한 정보를 확인할 수 있습니다. 이 정보를 통해 경영정보학과의 경쟁률 등을 파악하고 판단이 가능합니다.
+만약 더 자세한 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해 보시는 것이 좋습니다. 해당 사이트에서는 최신 정보와 자세한 설명을 제공하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 동의대학교 경영정보학과의 모집 정보에 대한 정확한 데이터를 제공하지 않지만, 원본 텍스트에서 언급된 평균 등급과 합격 가능성에 대한 정보를 바탕으로 합리적인 조언을 하고 있습니다. 그러나 원본 텍스트의 구체적인 수치와 비교할 때, 합격 가능성에 대한 명확한 판단을 제공하지 않으므로 점수를 4로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 있습니다. 원본 텍스트는 정시 등급이 평균보다 낮다고 명시하고 있지만, 생성된 응답은 그에 대한 명확한 언급 없이 일반적인 조언을 제공합니다. 따라서 일관성 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 경영정보학과의 합격 가능성에 대한 정보를 제공하고 있습니다. 따라서 관련성 점수를 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있어 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 일관된 흐름을 유지하고 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 정보를 바탕으로 합리적인 조언을 제공하지만, 구체적인 수치에 대한 언급이 부족하여 정확성 점수를 4로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 차원에서 양호한 성과를 보이고 있으며, 전반적으로 잘 작성되었습니다. 그러나 일부 일관성 문제로 인해 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 구체적인 수치에 대한 언급이 부족하여 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용이지만, 일부 표현이 다소 모호할 수 있어 점수를 4로 평가합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>0.5457072193514312</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 데이터만으로는 동의대학교 경영정보학과의 정확한 모집 정보를 알 수 없습니다. 해당 대학의 정시모집 전형에 대한 자세한 내용은 동의대학교의 입학처 웹사이트(https://ipsi. deu. ac. kr/main. do)에서 확인해 보시는 것이 가장 정확할 것입니다.
+특히, 경영정보학과의 모집 인원, 지원 인원, 경쟁률 등 최신 정보를 확인하시면 합격 가능성에 대한 판단을 더 잘 할 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 바이오응용공학부의 평균 등급과 관련된 정보를 제공하지만, 성적 3.33이 평균보다 낮다고 언급한 부분은 사실과 다릅니다. 원본 텍스트에 따르면 3.33은 평균보다 높은 성적이므로 이 부분에서 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있으나, 성적에 대한 해석이 원본과 일치하지 않아 일관성이 떨어집니다. 특히, 3.33 성적이 평균보다 낮다고 언급한 부분에서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 바이오응용공학부의 정시 모집 정보와 관련된 내용을 다루고 있어 대체로 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보인 평균 성적에 대한 언급이 부족하여 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 체계적으로 제시되어 있습니다. 그러나 성적 해석 부분에서의 불일치로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 성적 해석에서의 오류로 인해 정확성이 떨어집니다. 3.33 성적이 평균보다 낮다는 주장은 사실과 다릅니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 정보의 정확성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 대체로 일치하며, 주제에 적합한 내용을 담고 있습니다. 그러나 성적 해석에서의 오류로 인해 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달됩니다. 다만, 일부 복잡한 문장 구조로 인해 약간의 이해 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0.71633372880414</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학과에 대한 정시 모집 정보를 확인해보겠습니다.
+바이오응용공학과는 "나군(일반학생전형)"으로 모집되며, 성적 산출 방법은 다음과 같습니다:
+- 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+성적 3.33 정도는 대략적인 점수를 의미하지만, 정확한 표준 변환 점수를 알기 위해서는 해당 과목의 표준 변환 점수 평균과 비교해야 합니다.
+2024학년도 인문사회과학대학 국어국문학과의 경우, "나군(일반학생전형)"에서 다음과 같은 성적을 보였습니다:
+- 국어  + 수학  + 탐구(2개) 표준 변환 점수 합 평균: 303.44
+이를 바탕으로 추정해보면, 성적이 3.33 정도인 경우는 대략적으로 평균보다 낮은 점수입니다. 그러나 정확한 결과를 얻기 위해서는 해당 과목의 표준 변환 점수와 비교해야 합니다.
+따라서, 현재 정보로는 성적 3.33 정도에서는 최초등록자로 선발될 가능성은 낮을 것으로 보입니다. 하지만 동의대학교 바이오응용공학과의 정확한 성적 산출 방법과 평균 점수를 확인하여 더 정확한 판단을 내리시는 것이 좋겠습니다.
+더 자세한 정보를 얻기 위해서는 https://ipsi. deu. ac. kr/main. do 웹사이트를 참조하시거나 동의대학교 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 평균 등급에 대한 정보와 지원 가능성에 대한 언급이 있지만, 구체적인 과목별 점수 요구 사항은 원본 텍스트에 명시되어 있지 않습니다. 따라서 일부 정보는 정확하지만, 추가된 세부사항이 원본과 일치하지 않아 점수를 낮게 평가했습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 대한 정보를 제공하지만, 원본 텍스트의 평균 등급과는 다소 상충하는 점이 있습니다. 예를 들어, 영어 성적이 4등급 이상이어야 한다고 언급했으나, 원본 텍스트에서는 평균이 2.8이라고 명시되어 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 방사선학과 지원에 대한 질문에 직접적으로 관련된 정보를 제공하고 있으며, 원본 텍스트의 주요 내용과 잘 연결되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있어 완벽한 유창성에는 미치지 못합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 일부 정보가 원본과 일치하지 않아 완전한 일관성을 보장하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 평균 등급에 대한 정보는 정확하지만, 과목별 점수 요구 사항은 원본 텍스트에 명시된 내용과 다릅니다. 이로 인해 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 관련성과 유창성에서 좋은 점수를 받았습니다. 그러나 사실성과 일관성에서 다소 부족함이 있어 점수를 조정했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞춰져 있으며, 적절한 정보를 제공합니다. 그러나 일부 추가된 세부사항이 원본과 일치하지 않아 완벽한 적합성에는 미치지 못합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 복잡하게 느껴질 수 있어 완전한 이해 가능성에는 미치지 못합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0.6711822981430263</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>4등급의 성적을 가지고 방사선학과에 지원하려는 계획은 현실성이 낮습니다. 방사선학과는 보통 국어, 수학, 영어 등 주요 과목에서 높은 점수를 요구합니다.
+방사선학과에 지원하기 위해서는 다음과 같은 조건을 충족시켜야 합니다:
+1. **국어** : 90점 이상
+2. **수학** : 85점 이상 (특히 미적분이나 기하)
+3. **영어** : 4등급 이상
+현재의 4.4 등급은 영어 성적이 낮아서 방사선학과에 지원하기 어렵습니다. 대신 다른 학과를 고려해 보시는 것이 좋을 것 같습니다.
+만약 다른 학과를 선택한다면, "수능 전형성적 산출방법" 항목에서 제공된 정보를 참고하여 적합한 학과를 찾아보세요. 예를 들어, 국어와 수학 성적이 높은 학과를 고려해 보시는 것이 좋습니다.
+더 자세한 조언을 원하시면, "https://ipsi. deu. ac. kr/main. do" 링크에서 공식 정보를 확인하거나, 동의대학교 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 경쟁률과 지원자의 점수에 대한 정보를 제공하지만, 원본 텍스트의 주요 사실인 평균 영어 등급(2.8)과 수능 4개 영역 등급 평균(3.82)에 대한 언급이 없습니다. 또한, 266점이라는 점수는 원본 텍스트에서 언급된 2.66과 다르며, 이로 인해 사실성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 2.66이라는 점수가 평균보다 높다고 언급하고 있지만, 생성된 응답에서는 266점이 평균보다 낮다고 주장하고 있습니다. 이러한 상반된 정보는 일관성을 해칩니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 경쟁률과 점수에 대한 정보를 제공하지만, 원본 텍스트의 핵심 주제인 정시 등급과 합격 가능성에 대한 직접적인 언급이 부족합니다. 따라서 관련성은 있지만, 원본 텍스트의 주요 포인트를 충분히 다루지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 부족하여 전체적으로 일관된 주제를 유지하지 못하고 있습니다. 경쟁률과 점수에 대한 정보가 혼합되어 있어 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 정보를 포함하고 있습니다. 특히, 266점이 평균보다 낮다는 주장은 원본 텍스트의 내용과 맞지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 특히 점수에 대한 해석이 원본과 다릅니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0.6178946838943415</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>2024학년도 방사선학과의 경쟁률이 7.20으로 매우 높습니다. 지원자의 평균 표준 변환 점수 합은 329.82이고, 표준 편차는 8.02입니다. 
+당신의 점수가 266점이라면, 이는 평균보다 약간 낮습니다. 하지만 표준 편차를 고려하면, 266점은 평균에서 약 -75점 정도 차이가 나므로 상대적으로 낮은 점수입니다.
+따라서, 266점으로는 경쟁률이 매우 높은 방사선학과에 합격하기 어렵다고 볼 수 있습니다. 하지만 이는 확정적인 결과를 보장하지는 않습니다. 실제 입시에서는 다양한 요소들이 고려되므로, 최종 결과는 입시 당일의 상황과 지원자의 전체 성적 및 기타 평가 항목들에 따라 결정됩니다.
+더 자세한 정보나 추가 도움이 필요하시다면, "https://ipsi.deu.ac.kr/main. do"를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 3.66의 성적이 2등급(259점)으로 평가될 수 있다고 언급하고 있으나, 원문에서는 성적에 대한 구체적인 등급 기준이 제시되지 않았습니다. 또한, 농어촌 전형에 대한 정보가 원문에 포함되어 있지 않아 다소 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 언급된 평균 성적과 경쟁률에 대한 긍정적인 요소를 언급하고 있지만, 농어촌 전형에 대한 추가적인 정보가 포함되어 있어 원문과의 일관성이 떨어집니다. 원문에서 강조된 점들이 충분히 반영되지 않았습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문자의 성적과 관련된 정보를 제공하고 있으며, 경찰행정학과에 지원하는 것과 관련된 평가 요소를 다루고 있습니다. 그러나 원문에서 제공된 정보와의 직접적인 연관성이 부족한 부분이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 연결되어 있습니다. 그러나 원문과의 연결성이 약간 부족하여 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 성적에 대한 평가 기준을 제시하고 있으나, 원문에서 제공된 정보와의 일치성이 떨어지며, 농어촌 전형에 대한 정보가 원문에 포함되어 있지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원문과의 일관성 및 정확성이 부족하여 전반적인 품질이 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문자의 상황에 적절한 정보를 제공하고 있으며, 의미적으로 적절한 내용을 담고 있습니다. 그러나 원문과의 직접적인 연관성이 부족한 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 내용으로 구성되어 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0.4662916872785934</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>3.66의 성적을 가지고 경찰행정학전공에 지원하셨다면, 학업역량 평가 영역에서 좋은 점수를 받으실 가능성이 있습니다. 그러나 농어촌 전형의 경우, 학생부교과와 서류평가가 중요한 요소로 작용합니다.
+학업역량 평가 기준에 따르면 3.66은 2등급(259점)을 받으실 수 있습니다. 그러나 공동체역량과 전공적합성 평가 영역에서는 학생부교과와 서류의 내용이 중요하게 작용합니다.
+따라서, 다음과 같은 점들을 확인해 보세요:
+1. **학생부교과** : 협업능력, 학업태도 및 성취, 전공적합성 등에 대한 평가를 받으실 수 있습니다.
+2. **서류평가** : 지원자 본인 초본, 부모 초본 등의 제출이 필요합니다.
+학업역량에서 2등급을 받는다면, 공동체역량과 전공적합성에서도 좋은 점수를 받으시면 합격 가능성은 높아질 것입니다. 그러나 정확한 합격 여부는 입학사정관들의 평가 결과에 따라 결정되므로, 최선을 다해 준비하시기 바랍니다.
+더 자세한 정보나 도움이 필요하시다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 방문하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 25번의 합격 가능성에 대한 일반적인 의견을 제시하고 있지만, 원문에서 제공된 특정 학과 목록을 언급하지 않고 있습니다. 따라서 일부 정보가 누락되어 있어 사실성 점수가 낮아졌습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일관된 주제를 다루고 있지만, 원문에서 언급된 특정 학과에 대한 정보가 누락되어 있어 일관성이 떨어집니다. 예비 25번의 합격 가능성에 대한 일반적인 설명은 일관되지만, 구체적인 정보가 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 25번의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있지만, 원문에서 제시된 특정 학과 목록을 포함하지 않아 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원문과의 연결이 약해져서 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 예비 25번의 합격 가능성에 대한 일반적인 정보를 제공하지만, 원문에서 제공된 구체적인 학과 목록을 포함하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원문과의 연결이 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 반응하고 있으며, 의미적으로 적절한 정보를 제공합니다. 그러나 원문에서 제공된 특정 정보가 누락되어 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0.595224497058773</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>25번의 예비합격자인 경우, 경쟁률이 매우 높아 보입니다. 하지만 정확한 붙을 확률은 지원자의 성적과 모집단위에 따라 달라질 수 있습니다. 평균적인 경쟁률을 고려할 때 25번의 예비합격자 중에서 실제로 합격하는 경우는 매우 드물다고 볼 수 있습니다.
+하지만, 모든 것이 확실하지 않다는 점은 기억해야 합니다. 지원자의 성적이 높다면, 작은 가능성도 있을 수 있습니다. 또한, 모집단위에 따라 경쟁률이 달라질 수 있으므로, 해당 모집단위의 최종 합격자 명단을 확인해 보시는 것이 좋습니다.
+더 자세한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트 (https://ipsi. deu.ac.kr/main.do)를 참조하시거나, 대학 입학처에 직접 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1  
+   - 생성된 응답은 "동의대학교 법경찰행정학부"에 대한 정보를 제공하고 있으나, 원본 텍스트에서는 해당 학부가 존재하지 않는다고 명시하고 있습니다. 따라서, 생성된 응답은 사실과 일치하지 않으며, 여러 가지 부정확한 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1  
+   - 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 법경찰행정학부가 존재하지 않음을 강조하고 있지만, 생성된 응답은 해당 학부에 대한 정보를 제공하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2  
+   - 생성된 응답은 동의대학교의 입학 전형에 대한 정보를 제공하고 있으나, 원본 텍스트의 주제와는 관련이 적습니다. 원본 텍스트는 경찰행정학과에 대한 성적 기준을 다루고 있으며, 생성된 응답은 법경찰행정학부에 대한 잘못된 정보를 포함하고 있습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 구조적으로 일관성이 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 논리적 흐름이 약간 부족합니다.
+6. Accuracy Score (1-5): 1  
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 특히, 법경찰행정학부의 존재에 대한 잘못된 주장을 하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1  
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1  
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 3  
+   - 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 부정확성으로 인해 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0.7695039759418585</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어가기 위해서는 다음과 같은 점수를 얻어야 합니다:
+1. **평균 성적**: 동의대학교의 경우, 나군 학생부종합전형에서 평균 성적이 중요합니다. 이 전형에서는 국어, 수학, 영어 등급이 각각 25%씩 반영됩니다.
+2. **성적 기준**:
+   - **국어**: A+ (100점) 또는 A (90점)
+   - **수학**: A+ (100점) 또는 A (90점)
+   - **영어**: A+ (100점) 또는 A (90점)
+3. **예상 평균 성적**:
+   - 국어, 수학, 영어 각각 85점 이상을 받으면 안정권에 들 수 있습니다.
+   - 만약 90점 이상을 받는다면 문 닫고 들어갈 수 있을 정도의 성적이 될 것입니다.
+4. **추가 요소**:
+   - 학생부 종합전형에서는 학업역량, 공동체역량, 전공적합성 등이 평균 280점에서 196점 사이로 반영됩니다.
+   - 이 부분에서도 좋은 성적을 받는 것이 중요합니다.
+따라서, 동의대학교 법경찰행정학부에 정시로 들어가기 위해서는 국어, 수학, 영어 등급이 각각 85점 이상을 받는 것이 바람직하며, 학생부 종합전형에서도 좋은 성적을 받는 것이 중요합니다. 자세한 정보는 동의대학교 입학처 웹사이트를 참조하시거나 직접 문의하시는 것이 좋습니다. https://ipsi. deu. ac. kr/main. do</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과의 성적 산출 방법에 대한 정보를 제공하고 있으며, 5.33 등급의 지원자가 합격 가능성을 판단하기 위해 필요한 추가 정보를 언급하고 있습니다. 그러나 원본 텍스트에서 아동학과의 평균 등급에 대한 정보가 제공되었음에도 불구하고, 생성된 응답은 이를 명확히 반영하지 않고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 보육가정상담학과와 아동학과의 관계에 대한 명확한 언급이 부족하여 일관성이 떨어집니다. 특히, 아동학과의 평균 등급에 대한 언급이 없어서 혼란을 줄 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 보육가정상담학과의 성적 산출 방법과 관련된 정보를 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 전형에 대한 설명이 명확하게 이어집니다. 그러나 아동학과와 보육가정상담학과의 관계에 대한 명확한 연결이 부족하여 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 성적 산출 방법에 대한 정확한 정보를 제공하고 있지만, 원본 텍스트의 아동학과 평균 등급에 대한 정보가 누락되어 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 관련성과 유창성에서 강점을 보입니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 아동학과와 보육가정상담학과의 관계에 대한 명확한 설명이 부족하여 의미 전달이 완벽하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어질 경우 독자가 혼란스러울 수 있습니다. 따라서 명확성과 간결성을 높일 필요가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0.6063953119775571</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>5.33 등급을 가진 지원자가 동의대학교 보육가정상담학과에 합격할 수 있는지 확실한 답변을 드리기 위해서는 해당 전형의 성적 산출 방법과 기준 점수 등을 확인해야 합니다.
+현재 제공된 정보로는 다음과 같은 전형이 있습니다:
+- **나군(일반학생전형)**: 모집단위가 보육가정상담학과인 경우, 수능 4개 영역(국어, 수학, 영어, 탐구) 중 표준점수 및 등급점수 상위 3개 영역의 표준점수 및 등급점수를 합산한 점수 ÷ 2로 산출됩니다.
+- **다군(일반학생전형)**: 모집단위가 보육가정상담학과인 경우, 수능 4개 영역(국어, 수학, 영어, 탐구) 중 표준점수 및 등급점수 상위 3개 영역의 표준점수 및 등급점수를 합산한 점수 ÷ 2로 산출됩니다.
+- **나군 학생부종합(조기취업형계약학과전형)**: 모집단위가 보육가정상담학과인 경우, 학생부 교과성적을 기준으로 합니다. 이 경우에는 등급점수를 사용하지만, 정확한 점수 변환 방법이 제공되지 않았습니다.
+따라서 5.33 등급의 지원자가 어떤 전형에서 합격할 수 있는지 판단하기 위해서는:
+1. **등급점수 변환**: 5.33 등급을 표준점수로 변환해야 합니다.
+2. **성적 산출 방법**: 해당 전형의 성적 산출 방법을 확인해야 합니다.
+현재 제공된 정보만으로는 정확한 판단이 어렵습니다. 따라서, 더 자세한 정보를 얻기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 해당 전형의 성적 산출 방법과 기준 점수 등을 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 충원 합격자 발표 일정과 예비 번호에 대한 정보를 포함하고 있으며, 예비 12번의 합격 가능성에 대한 언급도 있습니다. 그러나 "합격 가능성은 아직 높지 않을 것으로 판단됩니다"라는 주장은 다소 주관적이며, 원문에서 명확히 언급되지 않은 부분입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, 예비 12번의 합격 가능성에 대한 해석이 원문과 다소 상충합니다. 원문에서는 예비 번호가 12번일 경우 합격 가능성이 아예 없는 것은 아니라고 명시하고 있으나, 생성된 응답에서는 가능성이 낮다고 단정짓고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 예비 12번에 대한 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 예비 12번의 합격 가능성에 대한 해석이 다소 모호하게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보에 기반하고 있으며, 전반적으로 정확합니다. 그러나 예비 12번의 합격 가능성에 대한 주관적인 판단이 포함되어 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성 측면에서 좋은 평가를 받습니다. 그러나 일부 주관적인 해석이 포함되어 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 주제에 적합한 내용을 담고 있습니다. 다만, 예비 12번의 합격 가능성에 대한 해석이 다소 주관적입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0.6809817848676565</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담 충원 합격 3차에서 예비 12번을 받으셨다면, 합격 가능성은 아직 높지 않을 것으로 판단됩니다. 하지만 최종 합격 여부는 학교 입학관리팀이 결정하는 것이므로 정확한 정보를 얻기 위해서는 입학관리팀에 직접 문의하거나, 학교 홈페이지에서 공고된 내용을 확인하시는 것이 좋습니다.
+현재 제공된 정보만으로 판단하면, 예비 12번은 최종 합격까지 많은 경쟁이 있을 것으로 보입니다. 따라서 추가적인 지원과 준비가 필요할 수 있습니다. 자세한 사항은 입학관리팀에 문의하시거나, 공고된 내용을 확인하시는 것이 좋습니다.
+더 궁금하신 점이 있으시면 다시 물어보세요!</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 4.75의 성적이 정시로 지원 가능하다고 언급하고 있지만, 유아교육학과에 대한 구체적인 정보는 제공하지 않고 있습니다. 유아교육학과의 평균 성적이 4.18이라는 사실은 정확하게 반영되었으나, 지원 가능성에 대한 명확한 판단이 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 유아교육학과에 대한 성적 요구 사항을 언급하고 있지만, 원본 텍스트에서 제공된 구체적인 데이터와는 일치하지 않는 부분이 있습니다. 특히, "정시로 지원하는 것은 가능합니다"라는 표현은 원본의 내용과 다소 상충합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 주제와 관련이 깊으며, 유아교육학과에 대한 성적 요구 사항을 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 일부 문장이 다소 중복되거나 불필요하게 길어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 유아교육학과의 성적 요구 사항에 대한 정보를 정확하게 반영하고 있지만, 4.75 성적에 대한 지원 가능성에 대한 판단이 다소 모호합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 표현이 다소 모호하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0.7266475831916874</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>4.75라는 성적을 가지고 정시로 지원하는 것은 가능합니다만, 각 대학의 모집요강과 전형별 기준에 따라 결과가 달라질 수 있습니다. 특히 유아교육학과 같은 특정 학과에서는 일반적으로 높은 성적이 요구되므로 4.75라는 성적으로는 어려울 가능성이 큽니다.
+정확한 판단을 위해서는 해당 대학의 정시 모집요강을 확인하시고, 유아교육학과의 전형 기준을 살펴보시는 것이 좋습니다. 또한, 다른 지원 요소들(예: 면접 성적, 서류 평가 등)도 고려해야 합니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 링크를 참조하시거나, 대학 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 사실을 잘 반영하고 있으며, 4.16이라는 점수가 높은 점수라는 점과 경쟁률에 대한 정보도 포함되어 있습니다. 그러나 원본 텍스트에서 제공된 평균 등급과 관련된 구체적인 수치가 누락되어 있어 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 대체로 일관성을 유지하고 있습니다. 그러나 경쟁률에 대한 추가 정보가 포함되어 있어 원본 텍스트의 정보와 약간의 차이가 있습니다. 그럼에도 불구하고 전반적으로 일관성이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 질문자가 궁금해하는 합격 가능성에 대한 정보를 잘 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 문장이 잘 연결되어 있습니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 평균 등급과 관련된 구체적인 수치가 누락되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받고 있습니다. 그러나 일부 세부 사항에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 일부 표현에서 더 명확한 의미 전달이 필요할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0.5319389355566985</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>4.16이라는 표준 변환 점수는 상당히 높은 점수입니다. 보육가정상담학과의 경우, 정원외 모집인원과 지원 인원을 살펴보면:
+- **모집 인원**: 20명
+- **지원 인원**: 148명
+- **경쟁률**: 약 7.40 (148/20)
+이 경쟁률은 상당히 높습니다. 평균 점수와 표준 편차를 고려하면, 4.16이라는 점수는 평균보다 약간 높은 수준입니다.
+**충원 합격 (후보순위)**: 20명이 모집되므로, 최상위 순위의 지원자들이 충원될 것입니다. 4.16이라는 점수는 충분히 좋은 점수지만, 경쟁률이 높아서 정확한 합격 여부를 단정 짓기는 어렵습니다.
+**추합까지 생각한다면**: 추합 점수도 고려해야 합니다. 추합 점수가 4.16 이상이라면 더 유리할 것입니다. 추합 점수는 국어, 수학, 탐구(2개), 영어 등급을 합산한 값이므로, 이 부분에서도 좋은 성적을 받은 것이 중요합니다.
+**결론**: 4.16이라는 점수는 충분히 좋은 점수지만, 경쟁률이 높아서 정확한 합격 여부를 단정 짓기는 어렵습니다. 추합 점수와 지원자의 전체 성적을 고려해보시고, 추가적으로 정보를 확인하시면 좋을 것 같습니다.
+더 궁금하신 사항이 있으시다면 https://ipsi. deu. ac. kr/main. do 를 참조하거나 문의해주세요.</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 원문과 상반된 내용을 담고 있습니다. 정시 지원이 가능하다는 잘못된 정보를 제공하고 있으며, 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순되는 내용을 포함하고 있습니다. 원문에서는 정시 지원이 불가능하다고 명시하고 있지만, 생성된 응답은 정시 지원 방법에 대해 설명하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 관련이 없으며, 주제와도 맞지 않습니다. 원문이 정시 지원 불가능성을 언급하는 반면, 생성된 응답은 정시 지원 방법에 대한 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계가 전혀 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 완전히 상반되는 내용을 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 주제와도 맞지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있어 이해하기는 쉽지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0.4026306244892969</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>2024년에 소프트웨어융합학과를 정시로 지원하려면, 전형명이 "가군(일반학생전형)" 또는 "나군(일반학생전형)"으로 지원해야 합니다. 
+- **가군(일반학생전형)**의 경우, 수능 점수와 실기/실적을 반영합니다.
+- **나군(일반학생전형)**의 경우, 수능 점수만을 반영합니다.
+**나군(일반학생전형)의 경우**, 평균적으로 4등급 정도를 받아야 합니다. 이는 과거 데이터에서 추정한 값이며, 정확한 점수는 해당년도의 경쟁률과 지원 인원에 따라 달라질 수 있습니다.
+**가군(일반학생전형)의 경우**, 실기/실적 점수와 함께 평균 4등급 정도를 받아야 합니다. 
+따라서, 정확한 점수는 해당년도의 경쟁률과 지원 인원에 따라 달라질 수 있으므로, 최신 정보를 확인하시거나, https://ipsi. deu. ac. kr/main. do 를 참조해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 면접에서의 질문 내용과 준비 방법에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 서류 평가와 면접 고사 점수에 대한 구체적인 내용이 누락되어 있습니다. 따라서 일부 사실이 누락되어 있어 점수를 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 면접과 관련된 정보는 제공하지만, 원본 텍스트의 서류 평가와 면접 고사 점수에 대한 내용과 일관성이 부족합니다. 서류와 면접 답변의 일관성을 강조하고 있지만, 원본의 핵심 정보를 반영하지 못하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 면접 준비와 관련된 정보로 주제를 잘 다루고 있지만, 원본 텍스트의 서류 평가와 관련된 정보가 부족하여 완전한 관련성을 갖추지 못하고 있습니다. 그러나 면접 준비에 대한 조언은 유용하므로 점수를 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있어 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 면접 준비에 대한 조언이 일관되게 제시되고 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 완전한 일관성을 갖추지 못하고 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 면접 준비에 대한 정보는 제공하지만, 원본 텍스트의 서류 평가와 면접 고사 점수에 대한 정확한 정보를 포함하지 않아 점수를 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 품질을 보이지만, 원본 텍스트의 핵심 정보를 누락하고 있어 전반적인 품질이 떨어집니다. 따라서 점수를 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 면접 준비와 관련된 의미를 잘 전달하고 있으며, 주제와 관련된 정보가 적절하게 표현되어 있습니다. 그러나 원본 텍스트의 정보가 누락되어 있어 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 다만, 원본 텍스트와의 연결이 부족하여 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>0.5167971075886731</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 소프테이션 융합과의 면접에서는 주로 지원동기, 학업역량, 전공적합성에 대한 질문들이 제시됩니다. 이 내용들을 중심으로 답변을 준비하시면 좋습니다.
+또한 면접에서 중요한 것은 서류와 면접 답변 사이의 일관성을 유지하는 것입니다. 서류에서는 자신의 노력과 성과를 구체적으로 기재하였다면, 면접에서도 그 부분에 대해 이야기해야 합니다.
+따로 준비해야 하는 서류는 없습니다. 하지만 면접 전략을 세우고, 면접 질문 공통문항을 미리 읽어보며 답변을 연습하는 것이 도움이 될 것입니다. 특히, 제출서류 진위 여부를 검증하기 위한 질문들이 포함되어 있으므로, 서류의 내용과 일치하도록 답변해야 합니다.
+더 궁금한 사항이 있으면 https://ipsi. deu. ac. kr/main. do 를 참조하시거나 문의해주세요.</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부에 대한 정보가 아닌 중어중국학과에 대한 정보를 제공하고 있습니다. 이는 원본 텍스트와의 사실적 일치가 부족합니다. 또한, 최초합격자의 영어 등급 평균이 4.08이라는 정보는 원본 텍스트에 명시된 4.12와 상충합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관성이 없습니다. 소프트웨어공학부에 대한 질문에 중어중국학과의 정보를 제공하며, 이는 서로 다른 학과에 대한 정보이므로 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 질문의 주제와 관련이 있지만, 소프트웨어공학부에 대한 정보가 아닌 중어중국학과에 대한 정보를 제공하여 관련성이 떨어집니다. 질문자는 소프트웨어공학부에 대한 합격 가능성을 묻고 있으나, 응답은 다른 학과에 대한 정보를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 고려해야 한다고 언급하지만, 원본 텍스트와의 연결이 부족하여 논리적 흐름이 약간 떨어집니다. 특히, 소프트웨어공학부와 중어중국학과의 정보가 혼합되어 있어 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 정보를 포함하고 있습니다. 특히, 중어중국학과의 최초합격자 영어 등급 평균이 4.08이라는 정보는 원본 텍스트의 4.12와 다릅니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 부족한 점이 많아 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 질문의 맥락과 관련이 있지만, 잘못된 학과 정보를 제공하여 의미적으로 적절하지 않습니다. 질문자가 원하는 정보와는 다소 동떨어져 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 주제의 일관성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0.7314057637535467</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 인문사회과학대학 중어중국학과의 경우, 최초합격자의 영어 등급 평균이 4.08입니다. 이는 정시 성적이 4.08인 분에게 좋은 소식일 수 있습니다.
+그러나 정확한 가능성을 판단하기 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. **모집단위**: 동의대학교 소프트웨어공학부가 인문사회과학대학에 속하는지 확인해야 합니다.
+2. **성적 평균 및 표준 편차**: 해당 모집단위의 성적 평균과 표준 편차를 확인하여, 자신의 점수가 얼마나 높은 위치에 있는지를 판단합니다.
+3. **경쟁률**: 경쟁률이 매우 높다면, 확실한 합격 가능성은 낮을 수 있습니다.
+위의 정보만으로는 정확한 답변을 드릴 수 없습니다. 동의대학교의 공식 웹사이트 (https://ipsi. deu. ac. kr/main. do)를 참조하여 해당 모집단위의 최신 성적 통계와 모집 규칙을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 소프트웨어융합학과에 대한 구체적인 합격 등급 정보를 제공하지 않으며, 소프트웨어공학부에 대한 정보로 잘못된 내용을 포함하고 있습니다. 원본 텍스트는 소프트웨어융합학과에 대한 정보만을 다루고 있으며, 생성된 응답은 다른 학과에 대한 정보를 언급하고 있어 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 원본 텍스트는 소프트웨어융합학과에 대한 정보만을 제공하는 반면, 생성된 응답은 소프트웨어공학부에 대한 정보를 언급하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어융합학과에 대한 질문에 대한 답변으로는 적절하지 않지만, 소프트웨어 관련 학과에 대한 정보를 제공하고 있습니다. 그러나 원본 텍스트의 핵심 주제와는 관련이 적습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 일관성이 부족합니다. 정보가 서로 연결되지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 소프트웨어융합학과에 대한 정확한 정보를 제공하지 않으며, 잘못된 학과 정보를 포함하고 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 포함하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 원본 텍스트와의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0.6245178105274422</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부의 경우, 평균 진로선택과목 성적반영이 A(2등급) B(4등급) C(6등급)였습니다. 정시모집군에서 지원을 고려할 때, 5등급은 지원 가능성이 낮아 보입니다.
+특히 소프트웨어공학부는 전형이 다양하게 이루어지므로, 정확한 지원 가능성 판단을 위해서는 해당 학과의 정시모집군 변경 사항 및 평균 점수 등을 확인해보시는 것이 좋습니다. 
+더 자세한 정보를 얻기 위해 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문하시거나, 대학 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 신소재공학과의 평균 성적과 경쟁률에 대한 정보를 제공하지만, 원본 텍스트에서 제시된 구체적인 수치와 비교할 때 다소 모호한 설명을 하고 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 추가적인 정보가 필요하다는 점에서 일관성이 떨어지는 부분이 있습니다. 원본 텍스트는 합격 가능성이 높다고 명시했으나, 생성된 응답은 불확실성을 강조하고 있습니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있으며, 신소재공학과의 합격 가능성에 대한 논의가 포함되어 있습니다. 그러나 원본 텍스트의 명확한 결론을 다소 회피하고 있어 관련성 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다. 따라서 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트의 결론과 다소 다른 방향으로 전개되므로 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보를 바탕으로 하고 있지만, 합격 가능성에 대한 명확한 판단을 회피하고 있습니다. 따라서 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트의 명확한 결론을 회피하고 있어 전반적인 품질 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있습니다. 그러나 일부 표현이 다소 모호할 수 있어 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 문장이 길어질 수 있어 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0.6374048940543271</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 동의대학교 신소재공학과에 대한 모집 상황을 확인하기 어렵습니다. 동의대학교 인문사회과학대학 내 각 학과별 지원 경쟁률과 성적 평균 등을 보면, 신소재공학과와 유사한 수준의 학과들(예: 전기공학과, 전자공학과 등)의 경우 경쟁률이 높거나 평균 성적이 4.28 이상인 경우도 있습니다.
+따라서 정확한 답변을 위해서는:
+1. 동의대학교 신소재공학과의 모집 인원과 지원 인원을 확인해야 합니다.
+2. 해당 학과의 최근 입학성적 평균을 파악해야 합니다.
+이 정보를 바탕으로, 현재 제공된 성적이 4.28이라면 경쟁률이나 평균 성적에 따라 합격 가능성은 있을 수 있습니다만, 확실한 답변을 위해서는 동의대학교 공식 웹사이트나 입학처와 직접 문의하는 것이 가장 정확할 것입니다.
+더 자세한 정보를 얻기 위해 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해 보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 일반학생전형에 자기소개서가 필요 없다는 사실을 정확하게 반영하고 있습니다. 그러나 추가적인 정보(나군과 다군의 경우 등)는 원문에 포함되지 않은 내용으로, 다소 과도한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부분 일치하지만, 나군과 다군의 전형에 대한 추가 정보는 원문과 일치하지 않으며, 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 대해 매우 관련성이 높고, 주제를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 추가 정보가 포함되어 있어 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 수능 일반학생전형에 대한 정확한 정보를 제공하지만, 나군과 다군의 전형에 대한 정보는 원문에 명시되지 않은 내용입니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성 등에서 좋은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 연결되어 있으나, 추가된 정보가 원문과의 맥락에서 다소 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 일부 긴 문장으로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0.5508327984104148</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 일반학생전형에 지원할 때 자기소개서는 필수적으로 작성하지 않아도 됩니다. 각 전형별로 요구사항이 다르므로, 구체적인 모집단위를 확인해 보시기 바랍니다.
+특히 나군과 다군의 경우 학생부종합전형을 포함하여 다양한 평가 요소가 있습니다. 예를 들어, 나군 조기취업형계약학과전형에서는 서류평가와 면접평가가 이루어지며, 이 때는 자기소개서 작성이 요구될 수 있습니다.
+따라서, 지원하고자 하는 모집단위의 전형요건을 확인하시고, 필요하다면 자기소개서를 작성해 보시기 바랍니다. 자세한 내용은 https://ipsi. deu. ac. kr/main. do 를 참조하시거나, 동의대학교 입학사정관실에 문의하시면 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 수능 4개 영역 등급이 4.5일 경우의 가능성을 언급하고 있지만, 경영학과의 평균 점수 416.53은 원본 텍스트에 명시된 정보와 일치하지 않으며, 이는 잘못된 정보입니다. 따라서 일부 사실이 부정확합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 경영학과의 평균 점수에 대한 정보는 원본 텍스트에 없는 내용으로, 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 수능 등급과 추가 모집에 대한 정보를 제공하고 있습니다. 그러나 경영학과의 평균 점수에 대한 언급은 원본 텍스트와 관련이 적습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다. 그러나 경영학과의 평균 점수 언급이 흐름을 약간 방해할 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답에서 제공된 경영학과의 평균 점수는 원본 텍스트에 없는 정보로, 정확성이 떨어집니다. 원본 텍스트의 정보와 비교했을 때, 일부 정보가 부정확합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 원본 텍스트와 관련이 있지만, 사실성과 정확성에서 문제가 있어 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적합하게 작성되었습니다. 그러나 경영학과의 평균 점수 언급은 다소 부적절할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 다만, 일부 문장이 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0.7124987294144259</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>4.5라는 점수는 수능 4개 영역 등급 중에서 어느 영역에 해당하는지 확인해야 합니다. 각 단과대학의 모집단위별로 평균 점수가 다르므로, 특정 단과대학이나 모집단위를 기준으로 판단해야 합니다.
+예를 들어, 경쟁률이 높은 경영학과의 경우 평균 점수가 416.53입니다. 이와 비교해보면 4.5는 상대적으로 낮은 점수로 보일 수 있습니다. 그러나 추가모집에서는 지원자의 전체 성적을 고려하기 때문에, 특정 단과대학에서 4.5의 등급이 충분히 경쟁력을 가질 수도 있습니다.
+따라서, 다음과 같은 절차를 따르는 것이 좋습니다:
+1. **각 단과대학별 평균 점수 확인**: 각 단과대학의 모집단위별 평균 점수와 표준 편차를 확인합니다.
+2. **자신의 성적 평가**: 자신의 국어, 수학, 영어 등급을 기반으로 표준 변환 점수를 계산합니다.
+3. **추가모집 정보 확인**: 추가모집에서 지원할 단과대학과 모집단위에 대한 정보를 확인합니다.
+이런 방식으로 판단하면 더 정확한 결과를 얻을 수 있습니다. 만약 자세한 정보가 필요하다면, 동의대학교의 공식 웹사이트 (https://ipsi. deu. ac. kr/main. do)에서 추가모집 관련 정보를 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학부의 합격 기준에 대한 구체적인 정보를 제공하지 않으며, 원본 텍스트에서 제시된 평균 등급에 대한 정보가 누락되어 있습니다. 그러나, 정시 모집군과 합격 기준이 매년 변경될 수 있다는 점은 사실입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부분 일치하지만, 신소재공학부의 평균 등급에 대한 언급이 없고, 이로 인해 일관성이 떨어집니다. 원본 텍스트의 핵심 정보를 반영하지 못하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 신소재공학부에 대한 정보를 요청하는 질문에 대해 관련된 정보를 제공하려고 하지만, 원본 텍스트의 구체적인 데이터는 포함되어 있지 않습니다. 그럼에도 불구하고, 관련 웹사이트를 언급하여 추가 정보를 찾도록 안내하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 원본 텍스트의 핵심 정보를 포함하지 않아 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 수치나 정보를 포함하지 않기 때문에 정확성이 떨어집니다. 그러나 정시 모집군과 합격 기준이 매년 변경될 수 있다는 점은 정확합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 원본 텍스트의 핵심 정보를 반영하지 못하고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 전달하고 있으며, 적절한 맥락에서 정보를 제공하고 있습니다. 그러나 원본 텍스트의 구체적인 내용이 누락되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 다만, 원본 텍스트의 정보가 부족하여 완전한 이해를 돕지 못할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>0.5772006175138775</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교 신소재공학부에 대한 정시 모집군이나 합격 기준 등급 등의 정보가 없습니다. 정시 모집군과 합격 기준 등급은 매년 변경될 수 있으며, 최신 정보를 얻으려면 동의대학교 입학처 웹사이트나 공식 안내서를 확인해보시는 것이 좋습니다. 필요하시다면 https://ipsi. deu. ac. kr/main. do 링크를 통해 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 작년 신소재공학과의 평균 점수에 대한 정보가 부족하고, 447점보다 약간 높을 가능성에 대한 언급이 있지만, 실제 평균 점수는 378.15점으로 명확히 제시되어 있습니다. 따라서, 응답의 사실성이 다소 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 작년 신소재공학과의 평균 점수와 관련된 정보가 일관되지 않습니다. 응답에서 언급된 446.69점은 다른 학과의 점수로 보이며, 신소재공학과와의 직접적인 비교가 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 주제와 관련된 정보를 제공하고 있지만, 신소재공학과에 대한 구체적인 정보가 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 연결되어 있으며, 주제에 대한 흐름이 잘 유지되고 있습니다. 그러나 신소재공학과와의 직접적인 연결이 부족하여 완전한 일관성을 갖추지 못했습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 응답에서 제공된 정보는 정확하지 않으며, 신소재공학과의 평균 점수에 대한 명확한 데이터가 부족합니다. 378.15점이라는 사실이 무시되었습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답의 의미는 대체로 적절하지만, 신소재공학과와의 관련성이 부족하여 일부 의미가 흐려질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 복잡하게 느껴질 수 있어 완전한 명확성을 제공하지는 못합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0.7356395161185384</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 표준점수와 최종 평균 점수는 다음과 같이 환산됩니다. 
+- **표준점수** : 447점
+- **최종 평균 점수** : 446.69점 (ICT융합공과대학 컴퓨터공학과)
+이러한 정보를 바탕으로, 작년 신소재공학과의 최종 평균 점수가 447점보다 약간 높았다는 말씀을 듣고, 현재 제공된 데이터만으로는 작년 신소재공학과의 최종 평균 점수가 447점보다 높게 나올 가능성을 정확히 예측하기 어렵습니다. 
+하지만, 동일한 대학에서 비슷한 분야를 공부하는 경우, 표준점수와 최종 평균 점수 사이의 차이가 작을 수 있습니다. 따라서 작년 신소재공학과의 최종 평균 점수가 447점보다 약간 높게 나올 가능성이 있지만, 확실한 것은 아닙니다.
+더 정확한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 관련 공지사항을 확인하는 것이 좋습니다. 만약 추가적인 자세한 정보가 필요하다면, https://ipsi. deu. ac. kr/main. do 를 참조해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 신소재공학부의 성적 산출 방식에 대한 정보를 포함하고 있지만, 원본 텍스트에서 제공된 평균 성적과 표준 편차에 대한 구체적인 수치를 언급하지 않고 있습니다. 또한, 성적 변환 과정에서의 수치가 원본 텍스트와 일치하지 않거나 명확하지 않아 일부 사실성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 성적 변환 방식과 관련된 정보가 추가되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트의 평균 성적과 비교할 때, 생성된 응답의 성적 변환 결과가 명확히 일치하지 않기 때문에 일관성 점수가 낮습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 신소재공학부의 합격 가능성에 대한 질문에 적절하게 답변하고 있으며, 관련된 성적 산출 방식과 기준을 설명하고 있습니다. 그러나 원본 텍스트의 평균 성적에 대한 구체적인 언급이 부족하여 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 성적 변환 과정과 합격 가능성에 대한 설명이 일관되게 이어집니다. 그러나 원본 텍스트와의 연결이 다소 약해져서 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답에서 제시된 성적 변환 수치가 원본 텍스트의 평균 성적과 일치하지 않으며, 성적 산출 방식에 대한 설명이 다소 모호합니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 정확성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 맥락에 적절하게 의미를 전달하고 있으며, 신소재공학부의 합격 가능성에 대한 질문에 적절히 대응하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 성적 변환 과정과 합격 가능성에 대한 설명이 명확합니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0.6046374338767229</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>4.3 등급의 성적이 정시 성적 산출 방식에 따라 약 4.1~4.2 정도로 변환될 경우, 신소재공학과의 일반학생전형에서 합격 가능성을 평가해보겠습니다.
+신소재공학과의 일반학생전형은 "국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수 + 가산점(수학(미적분 또는 기하) 응시자는 수학 표준점수 x 0.1)"의 방식으로 성적이 산출됩니다.
+현재의 성적을 정시 성적 산출 방법에 따라 변환하면 다음과 같습니다:
+- 국어: 104
+- 수학(미적분): 108 (가산점 108 x 0.1 = 10.8)
+- 영어: 4등급 (131)
+- 탐구: 가정하여 평균 5등급 (123)
+따라서 변환된 점수는 다음과 같습니다:
+\[ 104 + 108 + 131 + 123 = 466 \]
+변환된 점수가 신소재공학과의 일반학생전형 합격 기준을 충족하는지 확인해야 합니다. 신소재공학과의 일반학생전형 합격 기준은 대략적으로 다음과 같습니다:
+- 평균 450점 이상
+- 표준 편차를 고려한 점수 변동 범위 내
+변환된 점수가 이 기준을 충족한다면, 합격 가능성은 높아 보입니다. 그러나 정확한 합격 가능성을 판단하기 위해서는 신소재공학과의 최종 합격 기준 점수와 표준 편차를 확인해야 합니다.
+따라서, 현재의 성적 변환 결과가 신소재공학과의 일반학생전형 합격 기준을 충족한다면, 합격 가능성은 높아 보입니다. 하지만 최종 결정을 내리기 위해서는 해당 전형의 정확한 합격 기준 점수와 표준 편차를 확인해야 합니다.
+더 자세한 정보나 추가적인 질문이 있으시다면, https://ipsi. deu. ac. kr/main. do 를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 수능 일반학생전형에 대한 구체적인 성적 기준을 제시하고 있지만, 원본 텍스트에서 제공된 평균 점수 및 표준 편차와 같은 구체적인 데이터는 포함되어 있지 않다. 또한, "ICT융합공과대학"이라는 명칭은 원본 텍스트와 일치하지 않으며, 이는 사실과 다르다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 많다. 예를 들어, "국어 표준점수"와 "수학 표준점수"에 대한 구체적인 요구 사항이 제시되었지만, 원본 텍스트의 평균 점수와는 상충된다. 따라서 일관성이 낮다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 수능 일반학생전형에 대한 정보를 제공하고 있으므로 관련성이 높다. 그러나 원본 텍스트의 구체적인 성적 데이터와는 다소 차이가 있다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없다. 전반적으로 유창하게 표현되었다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 점수 항목이 명확하게 연결되어 있다. 따라서 일관된 흐름을 유지하고 있다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 성적 기준과 일치하지 않으며, 잘못된 정보가 포함되어 있다. 예를 들어, "ICT융합공과대학"이라는 명칭은 사실과 다르다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 양호하지만, 사실성과 일관성에서 큰 문제를 안고 있다. 따라서 전반적인 품질은 중간 정도로 평가된다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미와는 다소 차이가 있다. 특히, 특정 성적 기준에 대한 정보가 부정확하다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 표현되어 있다. 그러나 일부 정보의 부정확성으로 인해 혼란을 줄 수 있다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>0.796671159134183</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>동의대학교 ICT융합공과대학 인공지능학과로 수능 일반학생전형을 지원하는 경우, 다음과 같은 성적이 필요합니다.
+- **국어 표준점수**: 최소 100점 이상이 필요합니다.
+- **수학 표준점수**: 수학(미적분 또는 기하) 응시자는 수학 표준점수 x 0.1 가산점을 받을 수 있으므로, 최대한 높은 점수가 필요합니다. 예를 들어, 108점이면 108 + (108 * 0.1) = 118.8점이 됩니다.
+- **영어 등급점수**: 영어 4등급 이상이 필요합니다. 4등급의 점수는 115점입니다.
+- **탐구 표준점수**: 최소 2개 영역에서 높은 점수가 필요합니다.
+따라서, 예를 들어 다음과 같은 성적이면 충분히 합격 가능할 것입니다:
+- 국어: 104점
+- 수학(미적분): 108점 (가산점 포함 시 118.8점)
+- 영어: 4등급 (115점)
+- 탐구: 과학교과 47점, 사회영역 49점
+이 성적이 기준을 충족하면 합격 가능합니다. 하지만 최종적인 성적 기준은 동의대학교에서 공시하는 수능 점수 평균 및 표준편차와 관련하여 결정되므로, 정확한 정보는 동의대학교 입학처 웹사이트를 확인하시거나 전화로 문의하시는 것이 좋습니다.
+더 궁금하신 사항이 있으시면 https://ipsi. deu. ac. kr/main. do 를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 동의대학교의 정시 성적에 대한 정보를 제공하고 있으며, 5.27 성적에 대한 충원 합격 가능성을 언급하고 있습니다. 그러나, 특정 학과의 평균 성적과 표준 편차를 비교하는 방식이 다소 일반적이며, 구체적인 충원 합격 가능 학과 목록을 제공하지 않아 일부 정보가 누락된 것으로 보입니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있지만, 충원 합격 가능 학과에 대한 구체적인 정보를 제공하지 않고 일반적인 조언을 하고 있습니다. 이로 인해 원본 텍스트와의 일관성이 떨어지는 부분이 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 동의대학교의 정시 성적과 관련된 질문에 대해 적절한 정보를 제공하고 있으며, 주제와 관련된 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 학과의 평균 성적과 표준 편차를 비교하는 방식으로 일관된 흐름을 유지하고 있습니다. 그러나, 원본 텍스트의 구체적인 학과 목록과 비교할 때 다소 부족한 부분이 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 동의대학교의 성적 기준에 대한 정확한 정보를 제공하고 있으며, 특정 학과의 평균 성적과 표준 편차를 언급하고 있습니다. 그러나, 충원 합격 가능 학과에 대한 구체적인 정보가 부족하여 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 주제와 관련된 정보와 조언을 제공합니다. 그러나, 원본 텍스트의 구체적인 세부사항을 충분히 반영하지 못한 점이 아쉽습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 관련된 정보를 제공합니다. 다만, 구체적인 학과 목록이 누락되어 있어 일부 의미가 약해질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보를 제공합니다. 그러나, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>0.6741536910318223</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>5.27 등급으로 동의대학교에 지원할 경우, 각 학과별 경쟁률과 수능 4개 영역 등급의 평균 및 표준 편차를 고려해야 합니다.
+예를 들어, 상경대학 재무부동산학과의 경우:
+- 평균: 5.82
+- 표준 편차: 1.25
+이와 비교하면, 5.27 등급은 약간 낮은 수준입니다. 이는 경쟁률이 높은 학과일 가능성이 있습니다.
+다른 학과들에 대한 평균 및 표준 편차를 확인하여 더 정확한 판단을 내릴 수 있습니다. 예를 들어, 상경대학 무역학과의 경우:
+- 평균: 5.18
+- 표준 편차: 0.50
+이와 비교하면, 5.27 등급은 이 학과에 지원하기에는 적당한 수준일 수 있습니다.
+따라서, 정확한 판단을 내리기 위해서는 동의대학교 각 학과별 평균 및 표준 편차를 확인하시고, 자신의 성적을 해당 학과의 평균 등급과 비교해보시면 됩니다. 더 자세한 정보나 분석이 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 공식 홈페이지에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어공학부의 평균 등급과 관련된 정보를 포함하고 있으며, 4.2라는 점수가 좋은 성적이라는 점도 정확하게 반영하고 있습니다. 그러나 경쟁률에 대한 정보는 제공된 소스 텍스트에 명시되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 소스 텍스트의 정보와 일부 일치하지만, 경쟁률에 대한 언급이 추가되어 있어 일관성이 떨어질 수 있습니다. 소스 텍스트에서는 경쟁률에 대한 정보가 없기 때문에, 이 부분에서 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 소스 텍스트의 주제와 관련이 깊으며, 지원자의 성적과 합격 가능성에 대한 정보를 잘 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 경쟁률에 대한 언급이 추가되면서 약간의 흐름이 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보가 정확하지만, 경쟁률에 대한 정보는 소스 텍스트에 명시되어 있지 않으므로 정확성에서 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있지만, 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 소스 텍스트의 의미와 맥락에 잘 부합하지만, 경쟁률에 대한 추가 정보가 맥락에 맞지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>0.599542125128487</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 동의대학교 소프트웨어공학부에 지원할 때 좋은 성적이지만, 합격 가능성은 여러 요인에 따라 달라질 수 있습니다.
+1. **모집 인원과 지원 인원**: 소프트웨어공학부에서 모집 인원이 30명이고, 지원 인원이 146명으로 많은 지원자가 경쟁하고 있습니다.
+2. **경쟁률**: 현재 제공된 데이터에서는 경쟁률이 4.87로 매우 높습니다.
+따라서, 4.2라는 점수는 좋은 성적일 수 있지만, 경쟁률이 매우 높기 때문에 합격 가능성은 낮다고 볼 수 있습니다. 그러나 이전의 입학성적을 분석하거나 동의대학교의 최종 합격선을 확인하면 더 정확한 판단을 할 수 있을 것입니다.
+더 자세한 정보를 얻으려면, 동의대학교의 공식 웹사이트 (https://ipsi. deu.ac.kr/main.do)에서 입학성적 분석이나 최신 입학성적을 확인해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 화학환경공학부의 평균 등급과 관련된 정보를 제공하고 있으며, 3.92라는 점수에 대한 합격 가능성을 언급하고 있습니다. 그러나, 응답이 확정적인 답변을 피하고 추가적인 정보가 필요하다고 언급한 점에서 약간의 불확실성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되게 3.92 점수에 대한 합격 가능성을 논의하고 있습니다. 다만, 원본 텍스트에서 제시된 합격 가능성이 높다는 점과는 다소 상충하는 부분이 있어 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 화학환경공학부에 지원하기 위한 조건과 고려해야 할 사항들을 잘 설명하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나, 일부 문장 간의 연결이 더 매끄럽게 이루어질 수 있었던 점은 아쉬움으로 남습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 3.92 점수에 대한 합격 가능성을 논의하는 데 있어 정확한 정보를 제공합니다. 그러나, 확정적인 답변을 피하는 점에서 약간의 불확실성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 잘 수행하고 있습니다. 다만, 일부 점에서 개선의 여지가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나, 일부 문장에서 의미가 다소 모호하게 전달될 수 있는 점이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보를 제공합니다. 그러나, 일부 문장이 다소 복잡하게 느껴질 수 있어 완전한 이해를 위해 추가적인 설명이 필요할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>0.6866965450156598</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>3.92라는 점수만으로는 화학환경공학부에 지원이 가능한지 확정적으로 답변하기 어렵습니다. 이유는 다음과 같습니다:
+1. **모집단위별 정원**: 화학환경공학부의 정원 내 모집 인원을 확인해야 합니다.
+2. **성적 산출방법**: 각 전형별로 성적 산출 방법이 다릅니다. 예를 들어, 나군(일반학생전형)은 "국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수  + 가산점"을 사용합니다.
+3. **경쟁률**: 현재 지원 인원과 경쟁률을 고려해야 합니다.
+현재 제공된 정보로는 화학환경공학부의 정원 내 모집 인원, 성적 산출 방법, 그리고 지원 인원 등의 정보가 부족하여 확정적인 답변을 드릴 수 없습니다. 
+추가적으로 확인해야 할 사항은 다음과 같습니다:
+1. **화학환경공학부의 정원 내 모집 인원**을 확인하세요.
+2. **나군(일반학생전형)의 성적 산출 방법**을 다시 한번 확인하세요.
+3. **현재 지원 인원과 경쟁률**을 확인하세요.
+이런 정보들을 종합적으로 고려하여 결정하시면 좋을 것 같습니다. 만약 더 자세한 정보가 필요하다면, [https://ipsi. deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조하거나 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 원본 텍스트에서는 4.25의 성적이 최초합격자의 평균보다 높다고 판단했으나, 생성된 응답에서는 4.25가 평균보다 낮다고 잘못 설명하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본에서는 합격 가능성이 높다고 했지만, 생성된 응답에서는 성적이 충분하지 않다고 주장합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 동의대학교 화학환경공학부에 대한 정보를 제공하지만, 원본 텍스트의 핵심 질문에 대한 직접적인 답변이 부족합니다. 성적에 대한 분석이 포함되어 있으나, 원본의 주제와는 다소 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 편입니다. 그러나 일부 수식이 포함되어 있어 일반 독자에게는 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결된 부분이 있지만, 원본 텍스트와의 일관성이 부족하여 전체적인 흐름이 매끄럽지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 잘못된 정보를 제공합니다. 성적에 대한 해석이 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 해석하고 있으며, 부적절한 결론을 도출하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 응답은 읽기 쉬운 부분이 있지만, 수식과 통계적 분석이 포함되어 있어 일부 독자에게는 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>0.7435504573239731</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.25인데 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 화학환경공학부의 수능 일반학생전형에 대한 최초합격자 성적을 보면, 평균 점수와 표준 편차를 고려해야 합니다. 
+화학환경공학부의 경우, 지원 인원이 37명이고 모집 인원이 9명으로 경쟁률이 높습니다. 충원 합격자 수는 17명이며, 평균 점수와 표준 편차를 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 303.44, 표준 편차 10.34
+당신의 성적은 4.25로, 이는 표준점수 변환을 거쳐 평균과 비교해야 합니다. 표준점수 변환 공식은 다음과 같습니다:
+\[ \text{변환 점수} = (\text{표준 편차} \times z) + \text{평균} \]
+여기서 \(z\)는 표준 정규분포의 \(z\)-값입니다. \(z\)-값을 구하려면, 다음과 같은 공식을 사용합니다:
+\[ z = \frac{\text{원점수} - \text{평균}}{\text{표준 편차}} \]
+당신의 원점수는 4.25이고, 평균은 303.44, 표준 편차는 10.34입니다.
+\[ z = \frac{4.25 - 303.44}{10.34} \approx -29.67 \]
+이 \(z\)-값은 매우 낮습니다. 이는 평균보다 훨씬 낮은 점수를 의미합니다.
+따라서, 당신의 성적 4.25는 동의대학교 화학환경공학부의 수능 일반학생전형에서 충분한 성적이 아니라고 볼 수 있습니다. 이 경우 다른 전형을 고려하거나, 추가 학습을 통해 성적을 향상시키는 것이 좋습니다.
+더 자세한 정보나 도움이 필요하시다면, https://ipsi. deu. ac. kr/main. do를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 평균 점수와 관련된 정보에서 오류가 있습니다. 원본 텍스트에서는 평균 점수가 404.43이라고 명시되어 있지만, 생성된 응답에서는 평균 점수가 435.52로 잘못 언급되었습니다. 또한, 4.2라는 점수가 합격 기준에 미치지 못할 가능성이 높다고 주장하지만, 원본 텍스트에서는 합격 가능성이 존재한다고 언급하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 4.2라는 점수가 합격 가능성이 있다고 판단했으나, 생성된 응답은 그와 반대되는 주장을 하고 있습니다. 이러한 상반된 정보는 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보로 인해 주제에 대한 정확한 이해를 방해합니다. 그러나 합격 여부를 판단하기 위한 추가 요소를 언급한 점은 긍정적입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 서로 충돌하여 일관된 메시지를 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 평균 점수와 합격 가능성에 대한 잘못된 해석이 포함되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 그러나 문장 자체는 명확하게 작성되었습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>0.595179572613096</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 현재 제공된 데이터를 바탕으로 평균 점수가 330.11에서 450.71까지 다양하게 분포하고 있는 상황을 고려할 때, 영화학과의 경우 평균점수가 435.52로 가장 높은 편입니다. 따라서 4.2라는 점수는 영화학과의 합격 기준에 크게 미치지 못할 가능성이 높습니다.
+하지만 정확한 합격 여부를 판단하기 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. 지원자의 개인적인 성적 외에도 영어 등급, 수능 4개 영역 등급 등의 점수도 함께 평가됩니다.
+2. 경쟁률과 충원 합격 인원 수를 고려해야 합니다.
+따라서, 정확한 합격 여부는 입학처에서 제공하는 최종 합격 기준을 참고하거나 직접 문의하시는 것이 가장 정확할 것입니다. 만약 더 자세한 정보가 필요하다면, https://ipsi. deu. ac. kr/main. do를 방문하여 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 면접 절차를 정확하게 나열하고 있으며, 추가적으로 "지원자별로 채용기업 심층면접도 실시됩니다."라는 문장이 포함되어 있습니다. 이 문장은 원본 텍스트에 명시되어 있지 않지만, 면접 절차와 관련된 정보로 보아 사실에 부합한다고 판단됩니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관되며, 면접 절차를 정확히 전달하고 있습니다. 추가된 내용이 있지만, 전체적인 흐름과 일관성을 해치지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 면접 절차에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 면접 절차에 대한 정보는 정확하지만, 추가된 내용이 원본 텍스트에 포함되어 있지 않기 때문에 완전한 정확성은 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 모두 좋은 점수를 받았습니다. 그러나 추가된 내용으로 인해 약간의 점수를 감점했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 내용이 원본에 없기 때문에 완전한 적합성은 다소 떨어집니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0.9185421120851839</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실
+이 절차를 따르며, 지원자별로 채용기업 심층면접도 실시됩니다.</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
